--- a/instances/input.xlsx
+++ b/instances/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/UC/PhD/Math models/Electric Bus Smart Charging/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33E74E8-AF93-0044-8882-1F2B14F35DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA2FE2A-F120-E14F-A08F-BFF08819AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{933CD496-2CE3-3447-B44F-7F4C3643C8B9}"/>
   </bookViews>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,7 +223,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +600,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +773,7 @@
         <f>I2*24</f>
         <v>7.25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2">
         <f>J2*24</f>
         <v>7.583333333333333</v>
       </c>
@@ -820,7 +819,7 @@
         <f t="shared" ref="E3:E66" si="2">I3*24</f>
         <v>7.583333333333333</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3">
         <f t="shared" ref="F3:F66" si="3">J3*24</f>
         <v>7.9166666666666661</v>
       </c>
@@ -829,7 +828,7 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J50" si="4">I3+$Q$2</f>
+        <f t="shared" ref="J3:J45" si="4">I3+$Q$2</f>
         <v>0.3298611111111111</v>
       </c>
       <c r="L3" s="1"/>
@@ -863,13 +862,13 @@
         <f t="shared" si="2"/>
         <v>7.9166666666666661</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4">
         <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I52" si="6">I3+$Q$2</f>
+        <f t="shared" ref="I4:I45" si="6">I3+$Q$2</f>
         <v>0.3298611111111111</v>
       </c>
       <c r="J4" s="1">
@@ -907,7 +906,7 @@
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <f t="shared" si="3"/>
         <v>8.5833333333333339</v>
       </c>
@@ -950,7 +949,7 @@
         <f t="shared" si="2"/>
         <v>8.5833333333333339</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <f t="shared" si="3"/>
         <v>8.9166666666666679</v>
       </c>
@@ -993,7 +992,7 @@
         <f t="shared" si="2"/>
         <v>8.9166666666666679</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
@@ -1036,7 +1035,7 @@
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <f t="shared" si="3"/>
         <v>9.5833333333333339</v>
       </c>
@@ -1079,7 +1078,7 @@
         <f t="shared" si="2"/>
         <v>9.5833333333333339</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>9.9166666666666679</v>
       </c>
@@ -1123,7 +1122,7 @@
         <f t="shared" si="2"/>
         <v>9.9166666666666679</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <f t="shared" si="3"/>
         <v>10.25</v>
       </c>
@@ -1149,7 +1148,7 @@
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <f t="shared" si="3"/>
         <v>10.583333333333334</v>
       </c>
@@ -1175,7 +1174,7 @@
         <f t="shared" si="2"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <f t="shared" si="3"/>
         <v>10.916666666666668</v>
       </c>
@@ -1201,7 +1200,7 @@
         <f t="shared" si="2"/>
         <v>10.916666666666668</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>11.250000000000002</v>
       </c>
@@ -1227,7 +1226,7 @@
         <f t="shared" si="2"/>
         <v>11.250000000000002</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <f t="shared" si="3"/>
         <v>11.583333333333336</v>
       </c>
@@ -1253,7 +1252,7 @@
         <f t="shared" si="2"/>
         <v>11.583333333333336</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <f t="shared" si="3"/>
         <v>11.916666666666668</v>
       </c>
@@ -1279,7 +1278,7 @@
         <f t="shared" si="2"/>
         <v>12.916666666666666</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16">
         <f t="shared" si="3"/>
         <v>13.249999999999998</v>
       </c>
@@ -1304,7 +1303,7 @@
         <f t="shared" si="2"/>
         <v>13.249999999999998</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <f t="shared" si="3"/>
         <v>13.58333333333333</v>
       </c>
@@ -1330,7 +1329,7 @@
         <f t="shared" si="2"/>
         <v>13.58333333333333</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18">
         <f t="shared" si="3"/>
         <v>13.916666666666663</v>
       </c>
@@ -1356,7 +1355,7 @@
         <f t="shared" si="2"/>
         <v>13.916666666666663</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19">
         <f t="shared" si="3"/>
         <v>14.249999999999995</v>
       </c>
@@ -1382,7 +1381,7 @@
         <f t="shared" si="2"/>
         <v>14.249999999999995</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20">
         <f t="shared" si="3"/>
         <v>14.583333333333327</v>
       </c>
@@ -1408,7 +1407,7 @@
         <f t="shared" si="2"/>
         <v>14.583333333333327</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21">
         <f t="shared" si="3"/>
         <v>14.916666666666659</v>
       </c>
@@ -1434,7 +1433,7 @@
         <f t="shared" si="2"/>
         <v>14.916666666666659</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22">
         <f t="shared" si="3"/>
         <v>15.249999999999991</v>
       </c>
@@ -1460,7 +1459,7 @@
         <f t="shared" si="2"/>
         <v>15.249999999999991</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23">
         <f t="shared" si="3"/>
         <v>15.583333333333323</v>
       </c>
@@ -1486,7 +1485,7 @@
         <f t="shared" si="2"/>
         <v>15.583333333333323</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24">
         <f t="shared" si="3"/>
         <v>15.916666666666655</v>
       </c>
@@ -1512,7 +1511,7 @@
         <f t="shared" si="2"/>
         <v>15.916666666666655</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>16.249999999999986</v>
       </c>
@@ -1538,7 +1537,7 @@
         <f t="shared" si="2"/>
         <v>16.249999999999986</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26">
         <f t="shared" si="3"/>
         <v>16.583333333333321</v>
       </c>
@@ -1564,7 +1563,7 @@
         <f t="shared" si="2"/>
         <v>16.583333333333321</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27">
         <f t="shared" si="3"/>
         <v>16.91666666666665</v>
       </c>
@@ -1590,7 +1589,7 @@
         <f t="shared" si="2"/>
         <v>16.91666666666665</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28">
         <f t="shared" si="3"/>
         <v>17.249999999999986</v>
       </c>
@@ -1616,7 +1615,7 @@
         <f t="shared" si="2"/>
         <v>17.249999999999986</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29">
         <f t="shared" si="3"/>
         <v>17.583333333333314</v>
       </c>
@@ -1642,7 +1641,7 @@
         <f t="shared" si="2"/>
         <v>17.583333333333314</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30">
         <f t="shared" si="3"/>
         <v>17.91666666666665</v>
       </c>
@@ -1668,7 +1667,7 @@
         <f t="shared" si="2"/>
         <v>17.91666666666665</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31">
         <f t="shared" si="3"/>
         <v>18.249999999999979</v>
       </c>
@@ -1694,7 +1693,7 @@
         <f t="shared" si="2"/>
         <v>18.249999999999979</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32">
         <f t="shared" si="3"/>
         <v>18.583333333333314</v>
       </c>
@@ -1720,7 +1719,7 @@
         <f t="shared" si="2"/>
         <v>18.583333333333314</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33">
         <f t="shared" si="3"/>
         <v>18.916666666666643</v>
       </c>
@@ -1746,7 +1745,7 @@
         <f t="shared" si="2"/>
         <v>18.916666666666643</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34">
         <f t="shared" si="3"/>
         <v>19.249999999999979</v>
       </c>
@@ -1772,7 +1771,7 @@
         <f t="shared" si="2"/>
         <v>19.249999999999979</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35">
         <f t="shared" si="3"/>
         <v>19.583333333333307</v>
       </c>
@@ -1798,7 +1797,7 @@
         <f t="shared" si="2"/>
         <v>19.583333333333307</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36">
         <f t="shared" si="3"/>
         <v>19.916666666666643</v>
       </c>
@@ -1824,7 +1823,7 @@
         <f t="shared" si="2"/>
         <v>19.916666666666643</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37">
         <f t="shared" si="3"/>
         <v>20.249999999999972</v>
       </c>
@@ -1850,7 +1849,7 @@
         <f t="shared" si="2"/>
         <v>20.249999999999972</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38">
         <f t="shared" si="3"/>
         <v>20.583333333333307</v>
       </c>
@@ -1876,7 +1875,7 @@
         <f t="shared" si="2"/>
         <v>20.583333333333307</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39">
         <f t="shared" si="3"/>
         <v>20.916666666666636</v>
       </c>
@@ -1902,7 +1901,7 @@
         <f t="shared" si="2"/>
         <v>20.916666666666636</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40">
         <f t="shared" si="3"/>
         <v>21.249999999999972</v>
       </c>
@@ -1928,7 +1927,7 @@
         <f t="shared" si="2"/>
         <v>21.249999999999972</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41">
         <f t="shared" si="3"/>
         <v>21.5833333333333</v>
       </c>
@@ -1954,7 +1953,7 @@
         <f t="shared" si="2"/>
         <v>21.5833333333333</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42">
         <f t="shared" si="3"/>
         <v>21.916666666666636</v>
       </c>
@@ -1980,7 +1979,7 @@
         <f t="shared" si="2"/>
         <v>21.916666666666636</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43">
         <f t="shared" si="3"/>
         <v>22.249999999999964</v>
       </c>
@@ -2006,7 +2005,7 @@
         <f t="shared" si="2"/>
         <v>22.249999999999964</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44">
         <f t="shared" si="3"/>
         <v>22.5833333333333</v>
       </c>
@@ -2032,7 +2031,7 @@
         <f t="shared" si="2"/>
         <v>22.5833333333333</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45">
         <f t="shared" si="3"/>
         <v>22.916666666666629</v>
       </c>
@@ -2058,7 +2057,7 @@
         <f t="shared" si="2"/>
         <v>6.4166666666666661</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46">
         <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
@@ -2087,7 +2086,7 @@
         <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47">
         <f t="shared" si="3"/>
         <v>6.9166666666666679</v>
       </c>
@@ -2113,12 +2112,12 @@
         <f t="shared" si="2"/>
         <v>6.9166666666666679</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48">
         <f t="shared" si="3"/>
         <v>7.1666666666666679</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I111" si="8">I47+$Q$3</f>
+        <f t="shared" ref="I48:I110" si="8">I47+$Q$3</f>
         <v>0.28819444444444448</v>
       </c>
       <c r="J48" s="1">
@@ -2139,7 +2138,7 @@
         <f t="shared" si="2"/>
         <v>7.1666666666666679</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49">
         <f t="shared" si="3"/>
         <v>7.4166666666666679</v>
       </c>
@@ -2165,7 +2164,7 @@
         <f t="shared" si="2"/>
         <v>7.4166666666666679</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50">
         <f t="shared" si="3"/>
         <v>7.6666666666666687</v>
       </c>
@@ -2191,7 +2190,7 @@
         <f t="shared" si="2"/>
         <v>7.6666666666666687</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51">
         <f t="shared" si="3"/>
         <v>7.9166666666666696</v>
       </c>
@@ -2217,7 +2216,7 @@
         <f t="shared" si="2"/>
         <v>7.9166666666666696</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52">
         <f t="shared" si="3"/>
         <v>8.1666666666666696</v>
       </c>
@@ -2243,7 +2242,7 @@
         <f t="shared" si="2"/>
         <v>8.1666666666666696</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53">
         <f t="shared" si="3"/>
         <v>8.4166666666666696</v>
       </c>
@@ -2269,7 +2268,7 @@
         <f t="shared" si="2"/>
         <v>8.4166666666666696</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54">
         <f t="shared" si="3"/>
         <v>8.6666666666666714</v>
       </c>
@@ -2295,7 +2294,7 @@
         <f t="shared" si="2"/>
         <v>8.6666666666666714</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55">
         <f t="shared" si="3"/>
         <v>8.9166666666666714</v>
       </c>
@@ -2321,7 +2320,7 @@
         <f t="shared" si="2"/>
         <v>8.9166666666666714</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56">
         <f t="shared" si="3"/>
         <v>9.1666666666666714</v>
       </c>
@@ -2347,7 +2346,7 @@
         <f t="shared" si="2"/>
         <v>9.1666666666666714</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57">
         <f t="shared" si="3"/>
         <v>9.4166666666666714</v>
       </c>
@@ -2373,7 +2372,7 @@
         <f t="shared" si="2"/>
         <v>9.4166666666666714</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58">
         <f t="shared" si="3"/>
         <v>9.6666666666666714</v>
       </c>
@@ -2399,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>9.6666666666666714</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59">
         <f t="shared" si="3"/>
         <v>9.9166666666666732</v>
       </c>
@@ -2425,7 +2424,7 @@
         <f t="shared" si="2"/>
         <v>9.9166666666666732</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60">
         <f t="shared" si="3"/>
         <v>10.166666666666673</v>
       </c>
@@ -2451,7 +2450,7 @@
         <f t="shared" si="2"/>
         <v>10.166666666666673</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61">
         <f t="shared" si="3"/>
         <v>10.416666666666673</v>
       </c>
@@ -2477,7 +2476,7 @@
         <f t="shared" si="2"/>
         <v>10.416666666666673</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62">
         <f t="shared" si="3"/>
         <v>10.666666666666675</v>
       </c>
@@ -2503,7 +2502,7 @@
         <f t="shared" si="2"/>
         <v>10.666666666666675</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63">
         <f t="shared" si="3"/>
         <v>10.916666666666675</v>
       </c>
@@ -2529,7 +2528,7 @@
         <f t="shared" si="2"/>
         <v>10.916666666666675</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64">
         <f t="shared" si="3"/>
         <v>11.166666666666675</v>
       </c>
@@ -2555,7 +2554,7 @@
         <f t="shared" si="2"/>
         <v>11.166666666666675</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65">
         <f t="shared" si="3"/>
         <v>11.416666666666675</v>
       </c>
@@ -2581,7 +2580,7 @@
         <f t="shared" si="2"/>
         <v>11.416666666666675</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66">
         <f t="shared" si="3"/>
         <v>11.666666666666675</v>
       </c>
@@ -2607,7 +2606,7 @@
         <f t="shared" ref="E67:E130" si="11">I67*24</f>
         <v>11.666666666666675</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67">
         <f t="shared" ref="F67:F130" si="12">J67*24</f>
         <v>11.916666666666677</v>
       </c>
@@ -2633,7 +2632,7 @@
         <f t="shared" si="11"/>
         <v>11.916666666666677</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68">
         <f t="shared" si="12"/>
         <v>12.166666666666677</v>
       </c>
@@ -2659,7 +2658,7 @@
         <f t="shared" si="11"/>
         <v>12.166666666666677</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69">
         <f t="shared" si="12"/>
         <v>12.416666666666675</v>
       </c>
@@ -2685,7 +2684,7 @@
         <f t="shared" si="11"/>
         <v>13.583333333333332</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70">
         <f t="shared" si="12"/>
         <v>13.833333333333332</v>
       </c>
@@ -2710,7 +2709,7 @@
         <f t="shared" si="11"/>
         <v>13.833333333333332</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71">
         <f t="shared" si="12"/>
         <v>14.083333333333332</v>
       </c>
@@ -2736,7 +2735,7 @@
         <f t="shared" si="11"/>
         <v>14.083333333333332</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72">
         <f t="shared" si="12"/>
         <v>14.33333333333333</v>
       </c>
@@ -2762,7 +2761,7 @@
         <f t="shared" si="11"/>
         <v>14.33333333333333</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73">
         <f t="shared" si="12"/>
         <v>14.583333333333329</v>
       </c>
@@ -2788,7 +2787,7 @@
         <f t="shared" si="11"/>
         <v>14.583333333333329</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74">
         <f t="shared" si="12"/>
         <v>14.833333333333329</v>
       </c>
@@ -2814,7 +2813,7 @@
         <f t="shared" si="11"/>
         <v>14.833333333333329</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75">
         <f t="shared" si="12"/>
         <v>15.083333333333329</v>
       </c>
@@ -2840,7 +2839,7 @@
         <f t="shared" si="11"/>
         <v>15.083333333333329</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76">
         <f t="shared" si="12"/>
         <v>15.333333333333327</v>
       </c>
@@ -2866,7 +2865,7 @@
         <f t="shared" si="11"/>
         <v>15.333333333333327</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77">
         <f t="shared" si="12"/>
         <v>15.583333333333325</v>
       </c>
@@ -2892,7 +2891,7 @@
         <f t="shared" si="11"/>
         <v>15.583333333333325</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78">
         <f t="shared" si="12"/>
         <v>15.833333333333325</v>
       </c>
@@ -2918,7 +2917,7 @@
         <f t="shared" si="11"/>
         <v>15.833333333333325</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79">
         <f t="shared" si="12"/>
         <v>16.083333333333325</v>
       </c>
@@ -2944,7 +2943,7 @@
         <f t="shared" si="11"/>
         <v>16.083333333333325</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80">
         <f t="shared" si="12"/>
         <v>16.333333333333321</v>
       </c>
@@ -2970,7 +2969,7 @@
         <f t="shared" si="11"/>
         <v>16.333333333333321</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81">
         <f t="shared" si="12"/>
         <v>16.583333333333321</v>
       </c>
@@ -2996,7 +2995,7 @@
         <f t="shared" si="11"/>
         <v>16.583333333333321</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82">
         <f t="shared" si="12"/>
         <v>16.833333333333321</v>
       </c>
@@ -3022,7 +3021,7 @@
         <f t="shared" si="11"/>
         <v>16.833333333333321</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83">
         <f t="shared" si="12"/>
         <v>17.083333333333321</v>
       </c>
@@ -3048,7 +3047,7 @@
         <f t="shared" si="11"/>
         <v>17.083333333333321</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84">
         <f t="shared" si="12"/>
         <v>17.333333333333321</v>
       </c>
@@ -3074,7 +3073,7 @@
         <f t="shared" si="11"/>
         <v>17.333333333333321</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85">
         <f t="shared" si="12"/>
         <v>17.583333333333318</v>
       </c>
@@ -3100,7 +3099,7 @@
         <f t="shared" si="11"/>
         <v>17.583333333333318</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86">
         <f t="shared" si="12"/>
         <v>17.833333333333318</v>
       </c>
@@ -3126,7 +3125,7 @@
         <f t="shared" si="11"/>
         <v>17.833333333333318</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87">
         <f t="shared" si="12"/>
         <v>18.083333333333318</v>
       </c>
@@ -3152,7 +3151,7 @@
         <f t="shared" si="11"/>
         <v>18.083333333333318</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88">
         <f t="shared" si="12"/>
         <v>18.333333333333314</v>
       </c>
@@ -3178,7 +3177,7 @@
         <f t="shared" si="11"/>
         <v>18.333333333333314</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89">
         <f t="shared" si="12"/>
         <v>18.583333333333314</v>
       </c>
@@ -3204,7 +3203,7 @@
         <f t="shared" si="11"/>
         <v>18.583333333333314</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90">
         <f t="shared" si="12"/>
         <v>18.833333333333314</v>
       </c>
@@ -3230,7 +3229,7 @@
         <f t="shared" si="11"/>
         <v>18.833333333333314</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91">
         <f t="shared" si="12"/>
         <v>19.083333333333314</v>
       </c>
@@ -3256,7 +3255,7 @@
         <f t="shared" si="11"/>
         <v>19.083333333333314</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92">
         <f t="shared" si="12"/>
         <v>19.333333333333314</v>
       </c>
@@ -3282,7 +3281,7 @@
         <f t="shared" si="11"/>
         <v>19.333333333333314</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93">
         <f t="shared" si="12"/>
         <v>19.583333333333311</v>
       </c>
@@ -3308,7 +3307,7 @@
         <f t="shared" si="11"/>
         <v>19.583333333333311</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94">
         <f t="shared" si="12"/>
         <v>19.833333333333311</v>
       </c>
@@ -3334,7 +3333,7 @@
         <f t="shared" si="11"/>
         <v>19.833333333333311</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95">
         <f t="shared" si="12"/>
         <v>20.083333333333311</v>
       </c>
@@ -3360,7 +3359,7 @@
         <f t="shared" si="11"/>
         <v>20.083333333333311</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96">
         <f t="shared" si="12"/>
         <v>20.333333333333307</v>
       </c>
@@ -3386,7 +3385,7 @@
         <f t="shared" si="11"/>
         <v>20.333333333333307</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97">
         <f t="shared" si="12"/>
         <v>20.583333333333307</v>
       </c>
@@ -3412,7 +3411,7 @@
         <f t="shared" si="11"/>
         <v>20.583333333333307</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98">
         <f t="shared" si="12"/>
         <v>20.833333333333307</v>
       </c>
@@ -3438,7 +3437,7 @@
         <f t="shared" si="11"/>
         <v>20.833333333333307</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99">
         <f t="shared" si="12"/>
         <v>21.083333333333307</v>
       </c>
@@ -3464,7 +3463,7 @@
         <f t="shared" si="11"/>
         <v>21.083333333333307</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100">
         <f t="shared" si="12"/>
         <v>21.333333333333307</v>
       </c>
@@ -3490,7 +3489,7 @@
         <f t="shared" si="11"/>
         <v>21.333333333333307</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101">
         <f t="shared" si="12"/>
         <v>21.583333333333304</v>
       </c>
@@ -3516,7 +3515,7 @@
         <f t="shared" si="11"/>
         <v>21.583333333333304</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102">
         <f t="shared" si="12"/>
         <v>21.833333333333304</v>
       </c>
@@ -3542,7 +3541,7 @@
         <f t="shared" si="11"/>
         <v>21.833333333333304</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103">
         <f t="shared" si="12"/>
         <v>22.083333333333304</v>
       </c>
@@ -3568,7 +3567,7 @@
         <f t="shared" si="11"/>
         <v>22.083333333333304</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104">
         <f t="shared" si="12"/>
         <v>22.3333333333333</v>
       </c>
@@ -3594,7 +3593,7 @@
         <f t="shared" si="11"/>
         <v>22.3333333333333</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105">
         <f t="shared" si="12"/>
         <v>22.5833333333333</v>
       </c>
@@ -3620,7 +3619,7 @@
         <f t="shared" si="11"/>
         <v>22.5833333333333</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106">
         <f t="shared" si="12"/>
         <v>22.8333333333333</v>
       </c>
@@ -3646,7 +3645,7 @@
         <f t="shared" si="11"/>
         <v>22.8333333333333</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107">
         <f t="shared" si="12"/>
         <v>23.0833333333333</v>
       </c>
@@ -3672,7 +3671,7 @@
         <f t="shared" si="11"/>
         <v>23.0833333333333</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108">
         <f t="shared" si="12"/>
         <v>23.3333333333333</v>
       </c>
@@ -3698,7 +3697,7 @@
         <f t="shared" si="11"/>
         <v>23.3333333333333</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109">
         <f t="shared" si="12"/>
         <v>23.583333333333297</v>
       </c>
@@ -3724,7 +3723,7 @@
         <f t="shared" si="11"/>
         <v>23.583333333333297</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110">
         <f t="shared" si="12"/>
         <v>23.833333333333297</v>
       </c>
@@ -3750,7 +3749,7 @@
         <f t="shared" si="11"/>
         <v>6.1666666666666679</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111">
         <f t="shared" si="12"/>
         <v>6.5833333333333339</v>
       </c>
@@ -3779,7 +3778,7 @@
         <f t="shared" si="11"/>
         <v>6.5833333333333339</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
@@ -3805,16 +3804,16 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113">
         <f t="shared" si="12"/>
         <v>7.416666666666667</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" ref="I113:I147" si="13">I112+$Q$4</f>
+        <f t="shared" ref="I113:I145" si="13">I112+$Q$4</f>
         <v>0.29166666666666669</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" ref="J113:J148" si="14">I113+$Q$4</f>
+        <f t="shared" ref="J113:J145" si="14">I113+$Q$4</f>
         <v>0.30902777777777779</v>
       </c>
     </row>
@@ -3831,7 +3830,7 @@
         <f t="shared" si="11"/>
         <v>7.416666666666667</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114">
         <f t="shared" si="12"/>
         <v>7.8333333333333339</v>
       </c>
@@ -3857,7 +3856,7 @@
         <f t="shared" si="11"/>
         <v>7.8333333333333339</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115">
         <f t="shared" si="12"/>
         <v>8.25</v>
       </c>
@@ -3883,7 +3882,7 @@
         <f t="shared" si="11"/>
         <v>8.25</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116">
         <f t="shared" si="12"/>
         <v>8.6666666666666661</v>
       </c>
@@ -3909,7 +3908,7 @@
         <f t="shared" si="11"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117">
         <f t="shared" si="12"/>
         <v>9.0833333333333321</v>
       </c>
@@ -3935,7 +3934,7 @@
         <f t="shared" si="11"/>
         <v>9.0833333333333321</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118">
         <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
@@ -3961,7 +3960,7 @@
         <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119">
         <f t="shared" si="12"/>
         <v>9.9166666666666661</v>
       </c>
@@ -3987,7 +3986,7 @@
         <f t="shared" si="11"/>
         <v>9.9166666666666661</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120">
         <f t="shared" si="12"/>
         <v>10.333333333333332</v>
       </c>
@@ -4013,7 +4012,7 @@
         <f t="shared" si="11"/>
         <v>10.333333333333332</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121">
         <f t="shared" si="12"/>
         <v>10.75</v>
       </c>
@@ -4039,7 +4038,7 @@
         <f t="shared" si="11"/>
         <v>10.75</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122">
         <f t="shared" si="12"/>
         <v>11.166666666666666</v>
       </c>
@@ -4065,7 +4064,7 @@
         <f t="shared" si="11"/>
         <v>11.166666666666666</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123">
         <f t="shared" si="12"/>
         <v>11.583333333333332</v>
       </c>
@@ -4091,7 +4090,7 @@
         <f t="shared" si="11"/>
         <v>11.583333333333332</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124">
         <f t="shared" si="12"/>
         <v>11.999999999999998</v>
       </c>
@@ -4117,7 +4116,7 @@
         <f t="shared" si="11"/>
         <v>11.999999999999998</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125">
         <f t="shared" si="12"/>
         <v>12.416666666666664</v>
       </c>
@@ -4143,7 +4142,7 @@
         <f t="shared" si="11"/>
         <v>12.416666666666664</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126">
         <f t="shared" si="12"/>
         <v>12.833333333333332</v>
       </c>
@@ -4169,7 +4168,7 @@
         <f t="shared" si="11"/>
         <v>12.833333333333332</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127">
         <f t="shared" si="12"/>
         <v>13.25</v>
       </c>
@@ -4195,7 +4194,7 @@
         <f t="shared" si="11"/>
         <v>13.25</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128">
         <f t="shared" si="12"/>
         <v>13.666666666666668</v>
       </c>
@@ -4221,7 +4220,7 @@
         <f t="shared" si="11"/>
         <v>14.5</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129">
         <f t="shared" si="12"/>
         <v>14.916666666666668</v>
       </c>
@@ -4246,7 +4245,7 @@
         <f t="shared" si="11"/>
         <v>14.916666666666668</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130">
         <f t="shared" si="12"/>
         <v>15.333333333333336</v>
       </c>
@@ -4272,7 +4271,7 @@
         <f t="shared" ref="E131:E194" si="17">I131*24</f>
         <v>15.333333333333336</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131">
         <f t="shared" ref="F131:F194" si="18">J131*24</f>
         <v>15.750000000000004</v>
       </c>
@@ -4298,7 +4297,7 @@
         <f t="shared" si="17"/>
         <v>15.750000000000004</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132">
         <f t="shared" si="18"/>
         <v>16.166666666666671</v>
       </c>
@@ -4324,7 +4323,7 @@
         <f t="shared" si="17"/>
         <v>16.166666666666671</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133">
         <f t="shared" si="18"/>
         <v>16.583333333333339</v>
       </c>
@@ -4350,7 +4349,7 @@
         <f t="shared" si="17"/>
         <v>16.583333333333339</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134">
         <f t="shared" si="18"/>
         <v>17.000000000000007</v>
       </c>
@@ -4376,7 +4375,7 @@
         <f t="shared" si="17"/>
         <v>17.000000000000007</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135">
         <f t="shared" si="18"/>
         <v>17.416666666666675</v>
       </c>
@@ -4402,7 +4401,7 @@
         <f t="shared" si="17"/>
         <v>17.416666666666675</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136">
         <f t="shared" si="18"/>
         <v>17.833333333333343</v>
       </c>
@@ -4428,7 +4427,7 @@
         <f t="shared" si="17"/>
         <v>17.833333333333343</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137">
         <f t="shared" si="18"/>
         <v>18.250000000000011</v>
       </c>
@@ -4454,7 +4453,7 @@
         <f t="shared" si="17"/>
         <v>18.250000000000011</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138">
         <f t="shared" si="18"/>
         <v>18.666666666666679</v>
       </c>
@@ -4480,7 +4479,7 @@
         <f t="shared" si="17"/>
         <v>18.666666666666679</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139">
         <f t="shared" si="18"/>
         <v>19.083333333333346</v>
       </c>
@@ -4506,7 +4505,7 @@
         <f t="shared" si="17"/>
         <v>19.083333333333346</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140">
         <f t="shared" si="18"/>
         <v>19.500000000000014</v>
       </c>
@@ -4532,7 +4531,7 @@
         <f t="shared" si="17"/>
         <v>19.500000000000014</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141">
         <f t="shared" si="18"/>
         <v>19.916666666666682</v>
       </c>
@@ -4558,7 +4557,7 @@
         <f t="shared" si="17"/>
         <v>19.916666666666682</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142">
         <f t="shared" si="18"/>
         <v>20.33333333333335</v>
       </c>
@@ -4584,7 +4583,7 @@
         <f t="shared" si="17"/>
         <v>20.33333333333335</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143">
         <f t="shared" si="18"/>
         <v>20.750000000000018</v>
       </c>
@@ -4610,7 +4609,7 @@
         <f t="shared" si="17"/>
         <v>20.750000000000018</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144">
         <f t="shared" si="18"/>
         <v>21.166666666666686</v>
       </c>
@@ -4636,7 +4635,7 @@
         <f t="shared" si="17"/>
         <v>21.166666666666686</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145">
         <f t="shared" si="18"/>
         <v>21.583333333333353</v>
       </c>
@@ -4662,7 +4661,7 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146">
         <f t="shared" si="18"/>
         <v>6.5</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>0.25</v>
       </c>
       <c r="J146" s="1">
-        <f>I146+$Q$5</f>
+        <f t="shared" ref="J146:J171" si="19">I146+$Q$5</f>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -4691,16 +4690,16 @@
         <f t="shared" si="17"/>
         <v>6.5</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147">
         <f t="shared" si="18"/>
         <v>6.9999999999999991</v>
       </c>
       <c r="I147" s="1">
-        <f>I146+$Q$5</f>
+        <f t="shared" ref="I147:I158" si="20">I146+$Q$5</f>
         <v>0.27083333333333331</v>
       </c>
       <c r="J147" s="1">
-        <f>I147+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="L147" s="1"/>
@@ -4718,16 +4717,16 @@
         <f t="shared" si="17"/>
         <v>6.9999999999999991</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148">
         <f t="shared" si="18"/>
         <v>7.4999999999999982</v>
       </c>
       <c r="I148" s="1">
-        <f>I147+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="J148" s="1">
-        <f>I148+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4744,16 +4743,16 @@
         <f t="shared" si="17"/>
         <v>7.4999999999999982</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149">
         <f t="shared" si="18"/>
         <v>7.9999999999999982</v>
       </c>
       <c r="I149" s="1">
-        <f>I148+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.31249999999999994</v>
       </c>
       <c r="J149" s="1">
-        <f>I149+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333326</v>
       </c>
     </row>
@@ -4770,16 +4769,16 @@
         <f t="shared" si="17"/>
         <v>7.9999999999999982</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150">
         <f t="shared" si="18"/>
         <v>8.4999999999999982</v>
       </c>
       <c r="I150" s="1">
-        <f>I149+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="J150" s="1">
-        <f>I150+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.35416666666666657</v>
       </c>
     </row>
@@ -4796,16 +4795,16 @@
         <f t="shared" si="17"/>
         <v>8.4999999999999982</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151">
         <f t="shared" si="18"/>
         <v>8.9999999999999964</v>
       </c>
       <c r="I151" s="1">
-        <f>I150+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.35416666666666657</v>
       </c>
       <c r="J151" s="1">
-        <f>I151+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.37499999999999989</v>
       </c>
     </row>
@@ -4822,16 +4821,16 @@
         <f t="shared" si="17"/>
         <v>8.9999999999999964</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152">
         <f t="shared" si="18"/>
         <v>9.4999999999999964</v>
       </c>
       <c r="I152" s="1">
-        <f>I151+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.37499999999999989</v>
       </c>
       <c r="J152" s="1">
-        <f>I152+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.3958333333333332</v>
       </c>
     </row>
@@ -4848,16 +4847,16 @@
         <f t="shared" si="17"/>
         <v>9.4999999999999964</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153">
         <f t="shared" si="18"/>
         <v>9.9999999999999964</v>
       </c>
       <c r="I153" s="1">
-        <f>I152+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.3958333333333332</v>
       </c>
       <c r="J153" s="1">
-        <f>I153+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.41666666666666652</v>
       </c>
     </row>
@@ -4874,16 +4873,16 @@
         <f t="shared" si="17"/>
         <v>9.9999999999999964</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154">
         <f t="shared" si="18"/>
         <v>10.499999999999996</v>
       </c>
       <c r="I154" s="1">
-        <f>I153+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.41666666666666652</v>
       </c>
       <c r="J154" s="1">
-        <f>I154+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.43749999999999983</v>
       </c>
     </row>
@@ -4900,16 +4899,16 @@
         <f t="shared" si="17"/>
         <v>10.499999999999996</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155">
         <f t="shared" si="18"/>
         <v>10.999999999999996</v>
       </c>
       <c r="I155" s="1">
-        <f>I154+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.43749999999999983</v>
       </c>
       <c r="J155" s="1">
-        <f>I155+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.45833333333333315</v>
       </c>
     </row>
@@ -4926,16 +4925,16 @@
         <f t="shared" si="17"/>
         <v>10.999999999999996</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156">
         <f t="shared" si="18"/>
         <v>11.499999999999995</v>
       </c>
       <c r="I156" s="1">
-        <f>I155+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.45833333333333315</v>
       </c>
       <c r="J156" s="1">
-        <f>I156+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.47916666666666646</v>
       </c>
     </row>
@@ -4952,16 +4951,16 @@
         <f t="shared" si="17"/>
         <v>11.499999999999995</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157">
         <f t="shared" si="18"/>
         <v>11.999999999999995</v>
       </c>
       <c r="I157" s="1">
-        <f>I156+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.47916666666666646</v>
       </c>
       <c r="J157" s="1">
-        <f>I157+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
@@ -4978,16 +4977,16 @@
         <f t="shared" si="17"/>
         <v>11.999999999999995</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158">
         <f t="shared" si="18"/>
         <v>12.499999999999996</v>
       </c>
       <c r="I158" s="1">
-        <f>I157+$Q$5</f>
+        <f t="shared" si="20"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="J158" s="1">
-        <f>I158+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.52083333333333315</v>
       </c>
     </row>
@@ -5004,7 +5003,7 @@
         <f t="shared" si="17"/>
         <v>13.583333333333332</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159">
         <f t="shared" si="18"/>
         <v>14.083333333333334</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="J159" s="1">
-        <f>I159+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.58680555555555558</v>
       </c>
     </row>
@@ -5029,16 +5028,16 @@
         <f t="shared" si="17"/>
         <v>14.083333333333334</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160">
         <f t="shared" si="18"/>
         <v>14.583333333333336</v>
       </c>
       <c r="I160" s="1">
-        <f>I159+$Q$5</f>
+        <f t="shared" ref="I160:I171" si="21">I159+$Q$5</f>
         <v>0.58680555555555558</v>
       </c>
       <c r="J160" s="1">
-        <f>I160+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.60763888888888895</v>
       </c>
     </row>
@@ -5055,16 +5054,16 @@
         <f t="shared" si="17"/>
         <v>14.583333333333336</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161">
         <f t="shared" si="18"/>
         <v>15.083333333333336</v>
       </c>
       <c r="I161" s="1">
-        <f>I160+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.60763888888888895</v>
       </c>
       <c r="J161" s="1">
-        <f>I161+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.62847222222222232</v>
       </c>
     </row>
@@ -5081,16 +5080,16 @@
         <f t="shared" si="17"/>
         <v>15.083333333333336</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162">
         <f t="shared" si="18"/>
         <v>15.583333333333336</v>
       </c>
       <c r="I162" s="1">
-        <f>I161+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.62847222222222232</v>
       </c>
       <c r="J162" s="1">
-        <f>I162+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.64930555555555569</v>
       </c>
     </row>
@@ -5107,16 +5106,16 @@
         <f t="shared" si="17"/>
         <v>15.583333333333336</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163">
         <f t="shared" si="18"/>
         <v>16.083333333333336</v>
       </c>
       <c r="I163" s="1">
-        <f>I162+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.64930555555555569</v>
       </c>
       <c r="J163" s="1">
-        <f>I163+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.67013888888888906</v>
       </c>
     </row>
@@ -5133,16 +5132,16 @@
         <f t="shared" si="17"/>
         <v>16.083333333333336</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164">
         <f t="shared" si="18"/>
         <v>16.583333333333339</v>
       </c>
       <c r="I164" s="1">
-        <f>I163+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.67013888888888906</v>
       </c>
       <c r="J164" s="1">
-        <f>I164+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.69097222222222243</v>
       </c>
     </row>
@@ -5159,16 +5158,16 @@
         <f t="shared" si="17"/>
         <v>16.583333333333339</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165">
         <f t="shared" si="18"/>
         <v>17.083333333333339</v>
       </c>
       <c r="I165" s="1">
-        <f>I164+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.69097222222222243</v>
       </c>
       <c r="J165" s="1">
-        <f>I165+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.7118055555555558</v>
       </c>
     </row>
@@ -5185,16 +5184,16 @@
         <f t="shared" si="17"/>
         <v>17.083333333333339</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166">
         <f t="shared" si="18"/>
         <v>17.583333333333339</v>
       </c>
       <c r="I166" s="1">
-        <f>I165+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.7118055555555558</v>
       </c>
       <c r="J166" s="1">
-        <f>I166+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.73263888888888917</v>
       </c>
     </row>
@@ -5211,16 +5210,16 @@
         <f t="shared" si="17"/>
         <v>17.583333333333339</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167">
         <f t="shared" si="18"/>
         <v>18.083333333333343</v>
       </c>
       <c r="I167" s="1">
-        <f>I166+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.73263888888888917</v>
       </c>
       <c r="J167" s="1">
-        <f>I167+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.75347222222222254</v>
       </c>
     </row>
@@ -5237,16 +5236,16 @@
         <f t="shared" si="17"/>
         <v>18.083333333333343</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168">
         <f t="shared" si="18"/>
         <v>18.583333333333343</v>
       </c>
       <c r="I168" s="1">
-        <f>I167+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.75347222222222254</v>
       </c>
       <c r="J168" s="1">
-        <f>I168+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.77430555555555591</v>
       </c>
     </row>
@@ -5263,16 +5262,16 @@
         <f t="shared" si="17"/>
         <v>18.583333333333343</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169">
         <f t="shared" si="18"/>
         <v>19.083333333333343</v>
       </c>
       <c r="I169" s="1">
-        <f>I168+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.77430555555555591</v>
       </c>
       <c r="J169" s="1">
-        <f>I169+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.79513888888888928</v>
       </c>
     </row>
@@ -5289,16 +5288,16 @@
         <f t="shared" si="17"/>
         <v>19.083333333333343</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170">
         <f t="shared" si="18"/>
         <v>19.583333333333343</v>
       </c>
       <c r="I170" s="1">
-        <f>I169+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.79513888888888928</v>
       </c>
       <c r="J170" s="1">
-        <f>I170+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.81597222222222265</v>
       </c>
     </row>
@@ -5315,16 +5314,16 @@
         <f t="shared" si="17"/>
         <v>19.583333333333343</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171">
         <f t="shared" si="18"/>
         <v>20.083333333333343</v>
       </c>
       <c r="I171" s="1">
-        <f>I170+$Q$5</f>
+        <f t="shared" si="21"/>
         <v>0.81597222222222265</v>
       </c>
       <c r="J171" s="1">
-        <f>I171+$Q$5</f>
+        <f t="shared" si="19"/>
         <v>0.83680555555555602</v>
       </c>
     </row>
@@ -5341,7 +5340,7 @@
         <f t="shared" si="17"/>
         <v>6.5833333333333321</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172">
         <f t="shared" si="18"/>
         <v>7.25</v>
       </c>
@@ -5370,7 +5369,7 @@
         <f t="shared" si="17"/>
         <v>7.25</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173">
         <f t="shared" si="18"/>
         <v>7.9166666666666661</v>
       </c>
@@ -5397,16 +5396,16 @@
         <f t="shared" si="17"/>
         <v>7.9166666666666661</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174">
         <f t="shared" si="18"/>
         <v>8.5833333333333339</v>
       </c>
       <c r="I174" s="1">
-        <f t="shared" ref="I174:I194" si="19">I173++$Q$6</f>
+        <f t="shared" ref="I174:I189" si="22">I173++$Q$6</f>
         <v>0.3298611111111111</v>
       </c>
       <c r="J174" s="1">
-        <f t="shared" ref="J174:J191" si="20">I174+$Q$6</f>
+        <f t="shared" ref="J174:J189" si="23">I174+$Q$6</f>
         <v>0.3576388888888889</v>
       </c>
     </row>
@@ -5423,16 +5422,16 @@
         <f t="shared" si="17"/>
         <v>8.5833333333333339</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175">
         <f t="shared" si="18"/>
         <v>9.25</v>
       </c>
       <c r="I175" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.3576388888888889</v>
       </c>
       <c r="J175" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.38541666666666669</v>
       </c>
     </row>
@@ -5449,16 +5448,16 @@
         <f t="shared" si="17"/>
         <v>9.25</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176">
         <f t="shared" si="18"/>
         <v>9.9166666666666679</v>
       </c>
       <c r="I176" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="J176" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.41319444444444448</v>
       </c>
     </row>
@@ -5475,16 +5474,16 @@
         <f t="shared" si="17"/>
         <v>9.9166666666666679</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177">
         <f t="shared" si="18"/>
         <v>10.583333333333334</v>
       </c>
       <c r="I177" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41319444444444448</v>
       </c>
       <c r="J177" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.44097222222222227</v>
       </c>
     </row>
@@ -5501,16 +5500,16 @@
         <f t="shared" si="17"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178">
         <f t="shared" si="18"/>
         <v>11.250000000000002</v>
       </c>
       <c r="I178" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.44097222222222227</v>
       </c>
       <c r="J178" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.46875000000000006</v>
       </c>
     </row>
@@ -5527,16 +5526,16 @@
         <f t="shared" si="17"/>
         <v>11.250000000000002</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179">
         <f t="shared" si="18"/>
         <v>11.916666666666668</v>
       </c>
       <c r="I179" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46875000000000006</v>
       </c>
       <c r="J179" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.49652777777777785</v>
       </c>
     </row>
@@ -5553,16 +5552,16 @@
         <f t="shared" si="17"/>
         <v>11.916666666666668</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180">
         <f t="shared" si="18"/>
         <v>12.583333333333334</v>
       </c>
       <c r="I180" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.49652777777777785</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.52430555555555558</v>
       </c>
     </row>
@@ -5579,7 +5578,7 @@
         <f t="shared" si="17"/>
         <v>13.583333333333332</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181">
         <f t="shared" si="18"/>
         <v>14.25</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="J181" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.59375</v>
       </c>
     </row>
@@ -5604,16 +5603,16 @@
         <f t="shared" si="17"/>
         <v>14.25</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182">
         <f t="shared" si="18"/>
         <v>14.916666666666668</v>
       </c>
       <c r="I182" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.59375</v>
       </c>
       <c r="J182" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.62152777777777779</v>
       </c>
     </row>
@@ -5630,16 +5629,16 @@
         <f t="shared" si="17"/>
         <v>14.916666666666668</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183">
         <f t="shared" si="18"/>
         <v>15.583333333333334</v>
       </c>
       <c r="I183" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.62152777777777779</v>
       </c>
       <c r="J183" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.64930555555555558</v>
       </c>
     </row>
@@ -5656,16 +5655,16 @@
         <f t="shared" si="17"/>
         <v>15.583333333333334</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184">
         <f t="shared" si="18"/>
         <v>16.25</v>
       </c>
       <c r="I184" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.64930555555555558</v>
       </c>
       <c r="J184" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.67708333333333337</v>
       </c>
     </row>
@@ -5682,16 +5681,16 @@
         <f t="shared" si="17"/>
         <v>16.25</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185">
         <f t="shared" si="18"/>
         <v>16.916666666666668</v>
       </c>
       <c r="I185" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.67708333333333337</v>
       </c>
       <c r="J185" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.70486111111111116</v>
       </c>
     </row>
@@ -5708,16 +5707,16 @@
         <f t="shared" si="17"/>
         <v>16.916666666666668</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186">
         <f t="shared" si="18"/>
         <v>17.583333333333336</v>
       </c>
       <c r="I186" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.70486111111111116</v>
       </c>
       <c r="J186" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.73263888888888895</v>
       </c>
     </row>
@@ -5734,16 +5733,16 @@
         <f t="shared" si="17"/>
         <v>17.583333333333336</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187">
         <f t="shared" si="18"/>
         <v>18.25</v>
       </c>
       <c r="I187" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.73263888888888895</v>
       </c>
       <c r="J187" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.76041666666666674</v>
       </c>
     </row>
@@ -5760,16 +5759,16 @@
         <f t="shared" si="17"/>
         <v>18.25</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188">
         <f t="shared" si="18"/>
         <v>18.916666666666668</v>
       </c>
       <c r="I188" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.76041666666666674</v>
       </c>
       <c r="J188" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.78819444444444453</v>
       </c>
     </row>
@@ -5786,16 +5785,16 @@
         <f t="shared" si="17"/>
         <v>18.916666666666668</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189">
         <f t="shared" si="18"/>
         <v>19.583333333333336</v>
       </c>
       <c r="I189" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.78819444444444453</v>
       </c>
       <c r="J189" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.81597222222222232</v>
       </c>
     </row>
@@ -5812,7 +5811,7 @@
         <f t="shared" si="17"/>
         <v>7.3333333333333321</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F190">
         <f t="shared" si="18"/>
         <v>7.583333333333333</v>
       </c>
@@ -5841,7 +5840,7 @@
         <f t="shared" si="17"/>
         <v>7.583333333333333</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191">
         <f t="shared" si="18"/>
         <v>7.8333333333333339</v>
       </c>
@@ -5868,16 +5867,16 @@
         <f t="shared" si="17"/>
         <v>7.8333333333333339</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192">
         <f t="shared" si="18"/>
         <v>8.0833333333333339</v>
       </c>
       <c r="I192" s="1">
-        <f t="shared" ref="I192:I243" si="21">I191+$Q$7</f>
+        <f t="shared" ref="I192:I241" si="24">I191+$Q$7</f>
         <v>0.3263888888888889</v>
       </c>
       <c r="J192" s="1">
-        <f t="shared" ref="J192:J245" si="22">I192+$Q$7</f>
+        <f t="shared" ref="J192:J241" si="25">I192+$Q$7</f>
         <v>0.33680555555555558</v>
       </c>
     </row>
@@ -5894,16 +5893,16 @@
         <f t="shared" si="17"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193">
         <f t="shared" si="18"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="I193" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.33680555555555558</v>
       </c>
       <c r="J193" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.34722222222222227</v>
       </c>
     </row>
@@ -5920,528 +5919,528 @@
         <f t="shared" si="17"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F194">
         <f t="shared" si="18"/>
         <v>8.5833333333333357</v>
       </c>
       <c r="I194" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.34722222222222227</v>
       </c>
       <c r="J194" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.35763888888888895</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f t="shared" ref="A195:A258" si="23">CONVERT(E195,"hr","mn")</f>
+        <f t="shared" ref="A195:A258" si="26">CONVERT(E195,"hr","mn")</f>
         <v>515.00000000000011</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="24">CONVERT(F195,"hr","mn")</f>
+        <f t="shared" ref="B195:B258" si="27">CONVERT(F195,"hr","mn")</f>
         <v>530.00000000000011</v>
       </c>
       <c r="E195" s="6">
-        <f t="shared" ref="E195:E258" si="25">I195*24</f>
+        <f t="shared" ref="E195:E258" si="28">I195*24</f>
         <v>8.5833333333333357</v>
       </c>
-      <c r="F195" s="7">
-        <f t="shared" ref="F195:F258" si="26">J195*24</f>
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="29">J195*24</f>
         <v>8.8333333333333357</v>
       </c>
       <c r="I195" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.35763888888888895</v>
       </c>
       <c r="J195" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.36805555555555564</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>530.00000000000011</v>
       </c>
       <c r="B196">
+        <f t="shared" si="27"/>
+        <v>545.00000000000011</v>
+      </c>
+      <c r="E196" s="6">
+        <f t="shared" si="28"/>
+        <v>8.8333333333333357</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="29"/>
+        <v>9.0833333333333357</v>
+      </c>
+      <c r="I196" s="1">
         <f t="shared" si="24"/>
-        <v>545.00000000000011</v>
-      </c>
-      <c r="E196" s="6">
+        <v>0.36805555555555564</v>
+      </c>
+      <c r="J196" s="1">
         <f t="shared" si="25"/>
-        <v>8.8333333333333357</v>
-      </c>
-      <c r="F196" s="7">
-        <f t="shared" si="26"/>
-        <v>9.0833333333333357</v>
-      </c>
-      <c r="I196" s="1">
-        <f t="shared" si="21"/>
-        <v>0.36805555555555564</v>
-      </c>
-      <c r="J196" s="1">
-        <f t="shared" si="22"/>
         <v>0.37847222222222232</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>545.00000000000011</v>
       </c>
       <c r="B197">
+        <f t="shared" si="27"/>
+        <v>560.00000000000011</v>
+      </c>
+      <c r="E197" s="6">
+        <f t="shared" si="28"/>
+        <v>9.0833333333333357</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="29"/>
+        <v>9.3333333333333357</v>
+      </c>
+      <c r="I197" s="1">
         <f t="shared" si="24"/>
-        <v>560.00000000000011</v>
-      </c>
-      <c r="E197" s="6">
+        <v>0.37847222222222232</v>
+      </c>
+      <c r="J197" s="1">
         <f t="shared" si="25"/>
-        <v>9.0833333333333357</v>
-      </c>
-      <c r="F197" s="7">
-        <f t="shared" si="26"/>
-        <v>9.3333333333333357</v>
-      </c>
-      <c r="I197" s="1">
-        <f t="shared" si="21"/>
-        <v>0.37847222222222232</v>
-      </c>
-      <c r="J197" s="1">
-        <f t="shared" si="22"/>
         <v>0.38888888888888901</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>560.00000000000011</v>
       </c>
       <c r="B198">
+        <f t="shared" si="27"/>
+        <v>575.00000000000011</v>
+      </c>
+      <c r="E198" s="6">
+        <f t="shared" si="28"/>
+        <v>9.3333333333333357</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="29"/>
+        <v>9.5833333333333357</v>
+      </c>
+      <c r="I198" s="1">
         <f t="shared" si="24"/>
-        <v>575.00000000000011</v>
-      </c>
-      <c r="E198" s="6">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="J198" s="1">
         <f t="shared" si="25"/>
-        <v>9.3333333333333357</v>
-      </c>
-      <c r="F198" s="7">
-        <f t="shared" si="26"/>
-        <v>9.5833333333333357</v>
-      </c>
-      <c r="I198" s="1">
-        <f t="shared" si="21"/>
-        <v>0.38888888888888901</v>
-      </c>
-      <c r="J198" s="1">
-        <f t="shared" si="22"/>
         <v>0.39930555555555569</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>575.00000000000011</v>
       </c>
       <c r="B199">
+        <f t="shared" si="27"/>
+        <v>590.00000000000023</v>
+      </c>
+      <c r="E199" s="6">
+        <f t="shared" si="28"/>
+        <v>9.5833333333333357</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="29"/>
+        <v>9.8333333333333375</v>
+      </c>
+      <c r="I199" s="1">
         <f t="shared" si="24"/>
-        <v>590.00000000000023</v>
-      </c>
-      <c r="E199" s="6">
+        <v>0.39930555555555569</v>
+      </c>
+      <c r="J199" s="1">
         <f t="shared" si="25"/>
-        <v>9.5833333333333357</v>
-      </c>
-      <c r="F199" s="7">
-        <f t="shared" si="26"/>
-        <v>9.8333333333333375</v>
-      </c>
-      <c r="I199" s="1">
-        <f t="shared" si="21"/>
-        <v>0.39930555555555569</v>
-      </c>
-      <c r="J199" s="1">
-        <f t="shared" si="22"/>
         <v>0.40972222222222238</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>590.00000000000023</v>
       </c>
       <c r="B200">
+        <f t="shared" si="27"/>
+        <v>605.00000000000023</v>
+      </c>
+      <c r="E200" s="6">
+        <f t="shared" si="28"/>
+        <v>9.8333333333333375</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="29"/>
+        <v>10.083333333333337</v>
+      </c>
+      <c r="I200" s="1">
         <f t="shared" si="24"/>
-        <v>605.00000000000023</v>
-      </c>
-      <c r="E200" s="6">
+        <v>0.40972222222222238</v>
+      </c>
+      <c r="J200" s="1">
         <f t="shared" si="25"/>
-        <v>9.8333333333333375</v>
-      </c>
-      <c r="F200" s="7">
-        <f t="shared" si="26"/>
-        <v>10.083333333333337</v>
-      </c>
-      <c r="I200" s="1">
-        <f t="shared" si="21"/>
-        <v>0.40972222222222238</v>
-      </c>
-      <c r="J200" s="1">
-        <f t="shared" si="22"/>
         <v>0.42013888888888906</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>605.00000000000023</v>
       </c>
       <c r="B201">
+        <f t="shared" si="27"/>
+        <v>620.00000000000023</v>
+      </c>
+      <c r="E201" s="6">
+        <f t="shared" si="28"/>
+        <v>10.083333333333337</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="29"/>
+        <v>10.333333333333337</v>
+      </c>
+      <c r="I201" s="1">
         <f t="shared" si="24"/>
-        <v>620.00000000000023</v>
-      </c>
-      <c r="E201" s="6">
+        <v>0.42013888888888906</v>
+      </c>
+      <c r="J201" s="1">
         <f t="shared" si="25"/>
-        <v>10.083333333333337</v>
-      </c>
-      <c r="F201" s="7">
-        <f t="shared" si="26"/>
-        <v>10.333333333333337</v>
-      </c>
-      <c r="I201" s="1">
-        <f t="shared" si="21"/>
-        <v>0.42013888888888906</v>
-      </c>
-      <c r="J201" s="1">
-        <f t="shared" si="22"/>
         <v>0.43055555555555575</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>620.00000000000023</v>
       </c>
       <c r="B202">
+        <f t="shared" si="27"/>
+        <v>635.00000000000034</v>
+      </c>
+      <c r="E202" s="6">
+        <f t="shared" si="28"/>
+        <v>10.333333333333337</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="29"/>
+        <v>10.583333333333339</v>
+      </c>
+      <c r="I202" s="1">
         <f t="shared" si="24"/>
-        <v>635.00000000000034</v>
-      </c>
-      <c r="E202" s="6">
+        <v>0.43055555555555575</v>
+      </c>
+      <c r="J202" s="1">
         <f t="shared" si="25"/>
-        <v>10.333333333333337</v>
-      </c>
-      <c r="F202" s="7">
-        <f t="shared" si="26"/>
-        <v>10.583333333333339</v>
-      </c>
-      <c r="I202" s="1">
-        <f t="shared" si="21"/>
-        <v>0.43055555555555575</v>
-      </c>
-      <c r="J202" s="1">
-        <f t="shared" si="22"/>
         <v>0.44097222222222243</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>635.00000000000034</v>
       </c>
       <c r="B203">
+        <f t="shared" si="27"/>
+        <v>650.00000000000034</v>
+      </c>
+      <c r="E203" s="6">
+        <f t="shared" si="28"/>
+        <v>10.583333333333339</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="29"/>
+        <v>10.833333333333339</v>
+      </c>
+      <c r="I203" s="1">
         <f t="shared" si="24"/>
-        <v>650.00000000000034</v>
-      </c>
-      <c r="E203" s="6">
+        <v>0.44097222222222243</v>
+      </c>
+      <c r="J203" s="1">
         <f t="shared" si="25"/>
-        <v>10.583333333333339</v>
-      </c>
-      <c r="F203" s="7">
-        <f t="shared" si="26"/>
-        <v>10.833333333333339</v>
-      </c>
-      <c r="I203" s="1">
-        <f t="shared" si="21"/>
-        <v>0.44097222222222243</v>
-      </c>
-      <c r="J203" s="1">
-        <f t="shared" si="22"/>
         <v>0.45138888888888912</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>650.00000000000034</v>
       </c>
       <c r="B204">
+        <f t="shared" si="27"/>
+        <v>665.00000000000034</v>
+      </c>
+      <c r="E204" s="6">
+        <f t="shared" si="28"/>
+        <v>10.833333333333339</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="29"/>
+        <v>11.083333333333339</v>
+      </c>
+      <c r="I204" s="1">
         <f t="shared" si="24"/>
-        <v>665.00000000000034</v>
-      </c>
-      <c r="E204" s="6">
+        <v>0.45138888888888912</v>
+      </c>
+      <c r="J204" s="1">
         <f t="shared" si="25"/>
-        <v>10.833333333333339</v>
-      </c>
-      <c r="F204" s="7">
-        <f t="shared" si="26"/>
-        <v>11.083333333333339</v>
-      </c>
-      <c r="I204" s="1">
-        <f t="shared" si="21"/>
-        <v>0.45138888888888912</v>
-      </c>
-      <c r="J204" s="1">
-        <f t="shared" si="22"/>
         <v>0.4618055555555558</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>665.00000000000034</v>
       </c>
       <c r="B205">
+        <f t="shared" si="27"/>
+        <v>680.00000000000034</v>
+      </c>
+      <c r="E205" s="6">
+        <f t="shared" si="28"/>
+        <v>11.083333333333339</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="29"/>
+        <v>11.333333333333339</v>
+      </c>
+      <c r="I205" s="1">
         <f t="shared" si="24"/>
-        <v>680.00000000000034</v>
-      </c>
-      <c r="E205" s="6">
+        <v>0.4618055555555558</v>
+      </c>
+      <c r="J205" s="1">
         <f t="shared" si="25"/>
-        <v>11.083333333333339</v>
-      </c>
-      <c r="F205" s="7">
-        <f t="shared" si="26"/>
-        <v>11.333333333333339</v>
-      </c>
-      <c r="I205" s="1">
-        <f t="shared" si="21"/>
-        <v>0.4618055555555558</v>
-      </c>
-      <c r="J205" s="1">
-        <f t="shared" si="22"/>
         <v>0.47222222222222249</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>680.00000000000034</v>
       </c>
       <c r="B206">
+        <f t="shared" si="27"/>
+        <v>695.00000000000034</v>
+      </c>
+      <c r="E206" s="6">
+        <f t="shared" si="28"/>
+        <v>11.333333333333339</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="29"/>
+        <v>11.583333333333339</v>
+      </c>
+      <c r="I206" s="1">
         <f t="shared" si="24"/>
-        <v>695.00000000000034</v>
-      </c>
-      <c r="E206" s="6">
+        <v>0.47222222222222249</v>
+      </c>
+      <c r="J206" s="1">
         <f t="shared" si="25"/>
-        <v>11.333333333333339</v>
-      </c>
-      <c r="F206" s="7">
-        <f t="shared" si="26"/>
-        <v>11.583333333333339</v>
-      </c>
-      <c r="I206" s="1">
-        <f t="shared" si="21"/>
-        <v>0.47222222222222249</v>
-      </c>
-      <c r="J206" s="1">
-        <f t="shared" si="22"/>
         <v>0.48263888888888917</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>695.00000000000034</v>
       </c>
       <c r="B207">
+        <f t="shared" si="27"/>
+        <v>710.00000000000045</v>
+      </c>
+      <c r="E207" s="6">
+        <f t="shared" si="28"/>
+        <v>11.583333333333339</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="29"/>
+        <v>11.833333333333341</v>
+      </c>
+      <c r="I207" s="1">
         <f t="shared" si="24"/>
-        <v>710.00000000000045</v>
-      </c>
-      <c r="E207" s="6">
+        <v>0.48263888888888917</v>
+      </c>
+      <c r="J207" s="1">
         <f t="shared" si="25"/>
-        <v>11.583333333333339</v>
-      </c>
-      <c r="F207" s="7">
-        <f t="shared" si="26"/>
-        <v>11.833333333333341</v>
-      </c>
-      <c r="I207" s="1">
-        <f t="shared" si="21"/>
-        <v>0.48263888888888917</v>
-      </c>
-      <c r="J207" s="1">
-        <f t="shared" si="22"/>
         <v>0.49305555555555586</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>710.00000000000045</v>
       </c>
       <c r="B208">
+        <f t="shared" si="27"/>
+        <v>725.00000000000045</v>
+      </c>
+      <c r="E208" s="6">
+        <f t="shared" si="28"/>
+        <v>11.833333333333341</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="29"/>
+        <v>12.083333333333341</v>
+      </c>
+      <c r="I208" s="1">
         <f t="shared" si="24"/>
-        <v>725.00000000000045</v>
-      </c>
-      <c r="E208" s="6">
+        <v>0.49305555555555586</v>
+      </c>
+      <c r="J208" s="1">
         <f t="shared" si="25"/>
-        <v>11.833333333333341</v>
-      </c>
-      <c r="F208" s="7">
-        <f t="shared" si="26"/>
-        <v>12.083333333333341</v>
-      </c>
-      <c r="I208" s="1">
-        <f t="shared" si="21"/>
-        <v>0.49305555555555586</v>
-      </c>
-      <c r="J208" s="1">
-        <f t="shared" si="22"/>
         <v>0.50347222222222254</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>725.00000000000045</v>
       </c>
       <c r="B209">
+        <f t="shared" si="27"/>
+        <v>740.00000000000034</v>
+      </c>
+      <c r="E209" s="6">
+        <f t="shared" si="28"/>
+        <v>12.083333333333341</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="29"/>
+        <v>12.333333333333339</v>
+      </c>
+      <c r="I209" s="1">
         <f t="shared" si="24"/>
-        <v>740.00000000000034</v>
-      </c>
-      <c r="E209" s="6">
+        <v>0.50347222222222254</v>
+      </c>
+      <c r="J209" s="1">
         <f t="shared" si="25"/>
-        <v>12.083333333333341</v>
-      </c>
-      <c r="F209" s="7">
-        <f t="shared" si="26"/>
-        <v>12.333333333333339</v>
-      </c>
-      <c r="I209" s="1">
-        <f t="shared" si="21"/>
-        <v>0.50347222222222254</v>
-      </c>
-      <c r="J209" s="1">
-        <f t="shared" si="22"/>
         <v>0.51388888888888917</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>740.00000000000034</v>
       </c>
       <c r="B210">
+        <f t="shared" si="27"/>
+        <v>755.00000000000034</v>
+      </c>
+      <c r="E210" s="6">
+        <f t="shared" si="28"/>
+        <v>12.333333333333339</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="29"/>
+        <v>12.583333333333339</v>
+      </c>
+      <c r="I210" s="1">
         <f t="shared" si="24"/>
-        <v>755.00000000000034</v>
-      </c>
-      <c r="E210" s="6">
+        <v>0.51388888888888917</v>
+      </c>
+      <c r="J210" s="1">
         <f t="shared" si="25"/>
-        <v>12.333333333333339</v>
-      </c>
-      <c r="F210" s="7">
-        <f t="shared" si="26"/>
-        <v>12.583333333333339</v>
-      </c>
-      <c r="I210" s="1">
-        <f t="shared" si="21"/>
-        <v>0.51388888888888917</v>
-      </c>
-      <c r="J210" s="1">
-        <f t="shared" si="22"/>
         <v>0.5243055555555558</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>755.00000000000034</v>
       </c>
       <c r="B211">
+        <f t="shared" si="27"/>
+        <v>770.00000000000034</v>
+      </c>
+      <c r="E211" s="6">
+        <f t="shared" si="28"/>
+        <v>12.583333333333339</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="29"/>
+        <v>12.833333333333339</v>
+      </c>
+      <c r="I211" s="1">
         <f t="shared" si="24"/>
-        <v>770.00000000000034</v>
-      </c>
-      <c r="E211" s="6">
+        <v>0.5243055555555558</v>
+      </c>
+      <c r="J211" s="1">
         <f t="shared" si="25"/>
-        <v>12.583333333333339</v>
-      </c>
-      <c r="F211" s="7">
-        <f t="shared" si="26"/>
-        <v>12.833333333333339</v>
-      </c>
-      <c r="I211" s="1">
-        <f t="shared" si="21"/>
-        <v>0.5243055555555558</v>
-      </c>
-      <c r="J211" s="1">
-        <f t="shared" si="22"/>
         <v>0.53472222222222243</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>770.00000000000034</v>
       </c>
       <c r="B212">
+        <f t="shared" si="27"/>
+        <v>785.00000000000023</v>
+      </c>
+      <c r="E212" s="6">
+        <f t="shared" si="28"/>
+        <v>12.833333333333339</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="29"/>
+        <v>13.083333333333337</v>
+      </c>
+      <c r="I212" s="1">
         <f t="shared" si="24"/>
-        <v>785.00000000000023</v>
-      </c>
-      <c r="E212" s="6">
+        <v>0.53472222222222243</v>
+      </c>
+      <c r="J212" s="1">
         <f t="shared" si="25"/>
-        <v>12.833333333333339</v>
-      </c>
-      <c r="F212" s="7">
-        <f t="shared" si="26"/>
-        <v>13.083333333333337</v>
-      </c>
-      <c r="I212" s="1">
-        <f t="shared" si="21"/>
-        <v>0.53472222222222243</v>
-      </c>
-      <c r="J212" s="1">
-        <f t="shared" si="22"/>
         <v>0.54513888888888906</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>785.00000000000023</v>
       </c>
       <c r="B213">
+        <f t="shared" si="27"/>
+        <v>800.00000000000011</v>
+      </c>
+      <c r="E213" s="6">
+        <f t="shared" si="28"/>
+        <v>13.083333333333337</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="29"/>
+        <v>13.333333333333336</v>
+      </c>
+      <c r="I213" s="1">
         <f t="shared" si="24"/>
-        <v>800.00000000000011</v>
-      </c>
-      <c r="E213" s="6">
+        <v>0.54513888888888906</v>
+      </c>
+      <c r="J213" s="1">
         <f t="shared" si="25"/>
-        <v>13.083333333333337</v>
-      </c>
-      <c r="F213" s="7">
-        <f t="shared" si="26"/>
-        <v>13.333333333333336</v>
-      </c>
-      <c r="I213" s="1">
-        <f t="shared" si="21"/>
-        <v>0.54513888888888906</v>
-      </c>
-      <c r="J213" s="1">
-        <f t="shared" si="22"/>
         <v>0.55555555555555569</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>800.00000000000011</v>
       </c>
       <c r="B214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>815.00000000000011</v>
       </c>
       <c r="E214" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>13.333333333333336</v>
       </c>
-      <c r="F214" s="7">
-        <f t="shared" si="26"/>
+      <c r="F214">
+        <f t="shared" si="29"/>
         <v>13.583333333333336</v>
       </c>
       <c r="I214" s="1">
@@ -6449,310 +6448,310 @@
         <v>0.55555555555555569</v>
       </c>
       <c r="J214" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.56597222222222232</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>815.00000000000011</v>
       </c>
       <c r="B215">
+        <f t="shared" si="27"/>
+        <v>830.00000000000011</v>
+      </c>
+      <c r="E215" s="6">
+        <f t="shared" si="28"/>
+        <v>13.583333333333336</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="29"/>
+        <v>13.833333333333336</v>
+      </c>
+      <c r="I215" s="1">
         <f t="shared" si="24"/>
-        <v>830.00000000000011</v>
-      </c>
-      <c r="E215" s="6">
+        <v>0.56597222222222232</v>
+      </c>
+      <c r="J215" s="1">
         <f t="shared" si="25"/>
-        <v>13.583333333333336</v>
-      </c>
-      <c r="F215" s="7">
-        <f t="shared" si="26"/>
-        <v>13.833333333333336</v>
-      </c>
-      <c r="I215" s="1">
-        <f t="shared" si="21"/>
-        <v>0.56597222222222232</v>
-      </c>
-      <c r="J215" s="1">
-        <f t="shared" si="22"/>
         <v>0.57638888888888895</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>830.00000000000011</v>
       </c>
       <c r="B216">
+        <f t="shared" si="27"/>
+        <v>845</v>
+      </c>
+      <c r="E216" s="6">
+        <f t="shared" si="28"/>
+        <v>13.833333333333336</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="29"/>
+        <v>14.083333333333334</v>
+      </c>
+      <c r="I216" s="1">
         <f t="shared" si="24"/>
-        <v>845</v>
-      </c>
-      <c r="E216" s="6">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="J216" s="1">
         <f t="shared" si="25"/>
-        <v>13.833333333333336</v>
-      </c>
-      <c r="F216" s="7">
-        <f t="shared" si="26"/>
-        <v>14.083333333333334</v>
-      </c>
-      <c r="I216" s="1">
-        <f t="shared" si="21"/>
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="J216" s="1">
-        <f t="shared" si="22"/>
         <v>0.58680555555555558</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>845</v>
       </c>
       <c r="B217">
+        <f t="shared" si="27"/>
+        <v>859.99999999999989</v>
+      </c>
+      <c r="E217" s="6">
+        <f t="shared" si="28"/>
+        <v>14.083333333333334</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="29"/>
+        <v>14.333333333333332</v>
+      </c>
+      <c r="I217" s="1">
         <f t="shared" si="24"/>
-        <v>859.99999999999989</v>
-      </c>
-      <c r="E217" s="6">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="J217" s="1">
         <f t="shared" si="25"/>
-        <v>14.083333333333334</v>
-      </c>
-      <c r="F217" s="7">
-        <f t="shared" si="26"/>
-        <v>14.333333333333332</v>
-      </c>
-      <c r="I217" s="1">
-        <f t="shared" si="21"/>
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="J217" s="1">
-        <f t="shared" si="22"/>
         <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>859.99999999999989</v>
       </c>
       <c r="B218">
+        <f t="shared" si="27"/>
+        <v>874.99999999999989</v>
+      </c>
+      <c r="E218" s="6">
+        <f t="shared" si="28"/>
+        <v>14.333333333333332</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="29"/>
+        <v>14.583333333333332</v>
+      </c>
+      <c r="I218" s="1">
         <f t="shared" si="24"/>
-        <v>874.99999999999989</v>
-      </c>
-      <c r="E218" s="6">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J218" s="1">
         <f t="shared" si="25"/>
-        <v>14.333333333333332</v>
-      </c>
-      <c r="F218" s="7">
-        <f t="shared" si="26"/>
-        <v>14.583333333333332</v>
-      </c>
-      <c r="I218" s="1">
-        <f t="shared" si="21"/>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="J218" s="1">
-        <f t="shared" si="22"/>
         <v>0.60763888888888884</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>874.99999999999989</v>
       </c>
       <c r="B219">
+        <f t="shared" si="27"/>
+        <v>889.99999999999989</v>
+      </c>
+      <c r="E219" s="6">
+        <f t="shared" si="28"/>
+        <v>14.583333333333332</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="29"/>
+        <v>14.833333333333332</v>
+      </c>
+      <c r="I219" s="1">
         <f t="shared" si="24"/>
-        <v>889.99999999999989</v>
-      </c>
-      <c r="E219" s="6">
+        <v>0.60763888888888884</v>
+      </c>
+      <c r="J219" s="1">
         <f t="shared" si="25"/>
-        <v>14.583333333333332</v>
-      </c>
-      <c r="F219" s="7">
-        <f t="shared" si="26"/>
-        <v>14.833333333333332</v>
-      </c>
-      <c r="I219" s="1">
-        <f t="shared" si="21"/>
-        <v>0.60763888888888884</v>
-      </c>
-      <c r="J219" s="1">
-        <f t="shared" si="22"/>
         <v>0.61805555555555547</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>889.99999999999989</v>
       </c>
       <c r="B220">
+        <f t="shared" si="27"/>
+        <v>904.99999999999989</v>
+      </c>
+      <c r="E220" s="6">
+        <f t="shared" si="28"/>
+        <v>14.833333333333332</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="29"/>
+        <v>15.08333333333333</v>
+      </c>
+      <c r="I220" s="1">
         <f t="shared" si="24"/>
-        <v>904.99999999999989</v>
-      </c>
-      <c r="E220" s="6">
+        <v>0.61805555555555547</v>
+      </c>
+      <c r="J220" s="1">
         <f t="shared" si="25"/>
-        <v>14.833333333333332</v>
-      </c>
-      <c r="F220" s="7">
-        <f t="shared" si="26"/>
-        <v>15.08333333333333</v>
-      </c>
-      <c r="I220" s="1">
-        <f t="shared" si="21"/>
-        <v>0.61805555555555547</v>
-      </c>
-      <c r="J220" s="1">
-        <f t="shared" si="22"/>
         <v>0.6284722222222221</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>904.99999999999989</v>
       </c>
       <c r="B221">
+        <f t="shared" si="27"/>
+        <v>919.99999999999977</v>
+      </c>
+      <c r="E221" s="6">
+        <f t="shared" si="28"/>
+        <v>15.08333333333333</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="29"/>
+        <v>15.333333333333329</v>
+      </c>
+      <c r="I221" s="1">
         <f t="shared" si="24"/>
-        <v>919.99999999999977</v>
-      </c>
-      <c r="E221" s="6">
+        <v>0.6284722222222221</v>
+      </c>
+      <c r="J221" s="1">
         <f t="shared" si="25"/>
-        <v>15.08333333333333</v>
-      </c>
-      <c r="F221" s="7">
-        <f t="shared" si="26"/>
-        <v>15.333333333333329</v>
-      </c>
-      <c r="I221" s="1">
-        <f t="shared" si="21"/>
-        <v>0.6284722222222221</v>
-      </c>
-      <c r="J221" s="1">
-        <f t="shared" si="22"/>
         <v>0.63888888888888873</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>970.00000000000011</v>
       </c>
       <c r="B222">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>985.00000000000011</v>
       </c>
       <c r="E222" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16.166666666666668</v>
       </c>
-      <c r="F222" s="7">
-        <f t="shared" si="26"/>
+      <c r="F222">
+        <f t="shared" si="29"/>
         <v>16.416666666666668</v>
       </c>
       <c r="I222" s="1">
         <v>0.67361111111111116</v>
       </c>
       <c r="J222" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.68402777777777779</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>985.00000000000011</v>
       </c>
       <c r="B223">
+        <f t="shared" si="27"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="E223" s="6">
+        <f t="shared" si="28"/>
+        <v>16.416666666666668</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="29"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="I223" s="1">
         <f t="shared" si="24"/>
-        <v>999.99999999999989</v>
-      </c>
-      <c r="E223" s="6">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="J223" s="1">
         <f t="shared" si="25"/>
-        <v>16.416666666666668</v>
-      </c>
-      <c r="F223" s="7">
-        <f t="shared" si="26"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="I223" s="1">
-        <f t="shared" si="21"/>
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="J223" s="1">
-        <f t="shared" si="22"/>
         <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>999.99999999999989</v>
       </c>
       <c r="B224">
+        <f t="shared" si="27"/>
+        <v>1014.9999999999999</v>
+      </c>
+      <c r="E224" s="6">
+        <f t="shared" si="28"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="29"/>
+        <v>16.916666666666664</v>
+      </c>
+      <c r="I224" s="1">
         <f t="shared" si="24"/>
-        <v>1014.9999999999999</v>
-      </c>
-      <c r="E224" s="6">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="J224" s="1">
         <f t="shared" si="25"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="F224" s="7">
-        <f t="shared" si="26"/>
-        <v>16.916666666666664</v>
-      </c>
-      <c r="I224" s="1">
-        <f t="shared" si="21"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="J224" s="1">
-        <f t="shared" si="22"/>
         <v>0.70486111111111105</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1014.9999999999999</v>
       </c>
       <c r="B225">
+        <f t="shared" si="27"/>
+        <v>1029.9999999999998</v>
+      </c>
+      <c r="E225" s="6">
+        <f t="shared" si="28"/>
+        <v>16.916666666666664</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="29"/>
+        <v>17.166666666666664</v>
+      </c>
+      <c r="I225" s="1">
         <f t="shared" si="24"/>
-        <v>1029.9999999999998</v>
-      </c>
-      <c r="E225" s="6">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="J225" s="1">
         <f t="shared" si="25"/>
-        <v>16.916666666666664</v>
-      </c>
-      <c r="F225" s="7">
-        <f t="shared" si="26"/>
-        <v>17.166666666666664</v>
-      </c>
-      <c r="I225" s="1">
-        <f t="shared" si="21"/>
-        <v>0.70486111111111105</v>
-      </c>
-      <c r="J225" s="1">
-        <f t="shared" si="22"/>
         <v>0.71527777777777768</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1029.9999999999998</v>
       </c>
       <c r="B226">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1044.9999999999998</v>
       </c>
       <c r="E226" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>17.166666666666664</v>
       </c>
-      <c r="F226" s="7">
-        <f t="shared" si="26"/>
+      <c r="F226">
+        <f t="shared" si="29"/>
         <v>17.416666666666664</v>
       </c>
       <c r="I226" s="1">
@@ -6760,155 +6759,155 @@
         <v>0.71527777777777768</v>
       </c>
       <c r="J226" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.72569444444444431</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1044.9999999999998</v>
       </c>
       <c r="B227">
+        <f t="shared" si="27"/>
+        <v>1059.9999999999998</v>
+      </c>
+      <c r="E227" s="6">
+        <f t="shared" si="28"/>
+        <v>17.416666666666664</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="29"/>
+        <v>17.666666666666664</v>
+      </c>
+      <c r="I227" s="1">
         <f t="shared" si="24"/>
-        <v>1059.9999999999998</v>
-      </c>
-      <c r="E227" s="6">
+        <v>0.72569444444444431</v>
+      </c>
+      <c r="J227" s="1">
         <f t="shared" si="25"/>
-        <v>17.416666666666664</v>
-      </c>
-      <c r="F227" s="7">
-        <f t="shared" si="26"/>
-        <v>17.666666666666664</v>
-      </c>
-      <c r="I227" s="1">
-        <f t="shared" si="21"/>
-        <v>0.72569444444444431</v>
-      </c>
-      <c r="J227" s="1">
-        <f t="shared" si="22"/>
         <v>0.73611111111111094</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1059.9999999999998</v>
       </c>
       <c r="B228">
+        <f t="shared" si="27"/>
+        <v>1074.9999999999995</v>
+      </c>
+      <c r="E228" s="6">
+        <f t="shared" si="28"/>
+        <v>17.666666666666664</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="29"/>
+        <v>17.916666666666661</v>
+      </c>
+      <c r="I228" s="1">
         <f t="shared" si="24"/>
-        <v>1074.9999999999995</v>
-      </c>
-      <c r="E228" s="6">
+        <v>0.73611111111111094</v>
+      </c>
+      <c r="J228" s="1">
         <f t="shared" si="25"/>
-        <v>17.666666666666664</v>
-      </c>
-      <c r="F228" s="7">
-        <f t="shared" si="26"/>
-        <v>17.916666666666661</v>
-      </c>
-      <c r="I228" s="1">
-        <f t="shared" si="21"/>
-        <v>0.73611111111111094</v>
-      </c>
-      <c r="J228" s="1">
-        <f t="shared" si="22"/>
         <v>0.74652777777777757</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1074.9999999999995</v>
       </c>
       <c r="B229">
+        <f t="shared" si="27"/>
+        <v>1089.9999999999995</v>
+      </c>
+      <c r="E229" s="6">
+        <f t="shared" si="28"/>
+        <v>17.916666666666661</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="29"/>
+        <v>18.166666666666661</v>
+      </c>
+      <c r="I229" s="1">
         <f t="shared" si="24"/>
-        <v>1089.9999999999995</v>
-      </c>
-      <c r="E229" s="6">
+        <v>0.74652777777777757</v>
+      </c>
+      <c r="J229" s="1">
         <f t="shared" si="25"/>
-        <v>17.916666666666661</v>
-      </c>
-      <c r="F229" s="7">
-        <f t="shared" si="26"/>
-        <v>18.166666666666661</v>
-      </c>
-      <c r="I229" s="1">
-        <f t="shared" si="21"/>
-        <v>0.74652777777777757</v>
-      </c>
-      <c r="J229" s="1">
-        <f t="shared" si="22"/>
         <v>0.7569444444444442</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1089.9999999999995</v>
       </c>
       <c r="B230">
+        <f t="shared" si="27"/>
+        <v>1104.9999999999998</v>
+      </c>
+      <c r="E230" s="6">
+        <f t="shared" si="28"/>
+        <v>18.166666666666661</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="29"/>
+        <v>18.416666666666661</v>
+      </c>
+      <c r="I230" s="1">
         <f t="shared" si="24"/>
-        <v>1104.9999999999998</v>
-      </c>
-      <c r="E230" s="6">
+        <v>0.7569444444444442</v>
+      </c>
+      <c r="J230" s="1">
         <f t="shared" si="25"/>
-        <v>18.166666666666661</v>
-      </c>
-      <c r="F230" s="7">
-        <f t="shared" si="26"/>
-        <v>18.416666666666661</v>
-      </c>
-      <c r="I230" s="1">
-        <f t="shared" si="21"/>
-        <v>0.7569444444444442</v>
-      </c>
-      <c r="J230" s="1">
-        <f t="shared" si="22"/>
         <v>0.76736111111111083</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1104.9999999999998</v>
       </c>
       <c r="B231">
+        <f t="shared" si="27"/>
+        <v>1119.9999999999995</v>
+      </c>
+      <c r="E231" s="6">
+        <f t="shared" si="28"/>
+        <v>18.416666666666661</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="29"/>
+        <v>18.666666666666657</v>
+      </c>
+      <c r="I231" s="1">
         <f t="shared" si="24"/>
-        <v>1119.9999999999995</v>
-      </c>
-      <c r="E231" s="6">
+        <v>0.76736111111111083</v>
+      </c>
+      <c r="J231" s="1">
         <f t="shared" si="25"/>
-        <v>18.416666666666661</v>
-      </c>
-      <c r="F231" s="7">
-        <f t="shared" si="26"/>
-        <v>18.666666666666657</v>
-      </c>
-      <c r="I231" s="1">
-        <f t="shared" si="21"/>
-        <v>0.76736111111111083</v>
-      </c>
-      <c r="J231" s="1">
-        <f t="shared" si="22"/>
         <v>0.77777777777777746</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1119.9999999999995</v>
       </c>
       <c r="B232">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1134.9999999999995</v>
       </c>
       <c r="E232" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18.666666666666657</v>
       </c>
-      <c r="F232" s="7">
-        <f t="shared" si="26"/>
+      <c r="F232">
+        <f t="shared" si="29"/>
         <v>18.916666666666657</v>
       </c>
       <c r="I232" s="1">
@@ -6916,207 +6915,207 @@
         <v>0.77777777777777746</v>
       </c>
       <c r="J232" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.78819444444444409</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1134.9999999999995</v>
       </c>
       <c r="B233">
+        <f t="shared" si="27"/>
+        <v>1149.9999999999995</v>
+      </c>
+      <c r="E233" s="6">
+        <f t="shared" si="28"/>
+        <v>18.916666666666657</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="29"/>
+        <v>19.166666666666657</v>
+      </c>
+      <c r="I233" s="1">
         <f t="shared" si="24"/>
-        <v>1149.9999999999995</v>
-      </c>
-      <c r="E233" s="6">
+        <v>0.78819444444444409</v>
+      </c>
+      <c r="J233" s="1">
         <f t="shared" si="25"/>
-        <v>18.916666666666657</v>
-      </c>
-      <c r="F233" s="7">
-        <f t="shared" si="26"/>
-        <v>19.166666666666657</v>
-      </c>
-      <c r="I233" s="1">
-        <f t="shared" si="21"/>
-        <v>0.78819444444444409</v>
-      </c>
-      <c r="J233" s="1">
-        <f t="shared" si="22"/>
         <v>0.79861111111111072</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1149.9999999999995</v>
       </c>
       <c r="B234">
+        <f t="shared" si="27"/>
+        <v>1164.9999999999995</v>
+      </c>
+      <c r="E234" s="6">
+        <f t="shared" si="28"/>
+        <v>19.166666666666657</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="29"/>
+        <v>19.416666666666657</v>
+      </c>
+      <c r="I234" s="1">
         <f t="shared" si="24"/>
-        <v>1164.9999999999995</v>
-      </c>
-      <c r="E234" s="6">
+        <v>0.79861111111111072</v>
+      </c>
+      <c r="J234" s="1">
         <f t="shared" si="25"/>
-        <v>19.166666666666657</v>
-      </c>
-      <c r="F234" s="7">
-        <f t="shared" si="26"/>
-        <v>19.416666666666657</v>
-      </c>
-      <c r="I234" s="1">
-        <f t="shared" si="21"/>
-        <v>0.79861111111111072</v>
-      </c>
-      <c r="J234" s="1">
-        <f t="shared" si="22"/>
         <v>0.80902777777777735</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1164.9999999999995</v>
       </c>
       <c r="B235">
+        <f t="shared" si="27"/>
+        <v>1179.9999999999995</v>
+      </c>
+      <c r="E235" s="6">
+        <f t="shared" si="28"/>
+        <v>19.416666666666657</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="29"/>
+        <v>19.666666666666657</v>
+      </c>
+      <c r="I235" s="1">
         <f t="shared" si="24"/>
-        <v>1179.9999999999995</v>
-      </c>
-      <c r="E235" s="6">
+        <v>0.80902777777777735</v>
+      </c>
+      <c r="J235" s="1">
         <f t="shared" si="25"/>
-        <v>19.416666666666657</v>
-      </c>
-      <c r="F235" s="7">
-        <f t="shared" si="26"/>
-        <v>19.666666666666657</v>
-      </c>
-      <c r="I235" s="1">
-        <f t="shared" si="21"/>
-        <v>0.80902777777777735</v>
-      </c>
-      <c r="J235" s="1">
-        <f t="shared" si="22"/>
         <v>0.81944444444444398</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1179.9999999999995</v>
       </c>
       <c r="B236">
+        <f t="shared" si="27"/>
+        <v>1194.9999999999993</v>
+      </c>
+      <c r="E236" s="6">
+        <f t="shared" si="28"/>
+        <v>19.666666666666657</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="29"/>
+        <v>19.916666666666654</v>
+      </c>
+      <c r="I236" s="1">
         <f t="shared" si="24"/>
-        <v>1194.9999999999993</v>
-      </c>
-      <c r="E236" s="6">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="J236" s="1">
         <f t="shared" si="25"/>
-        <v>19.666666666666657</v>
-      </c>
-      <c r="F236" s="7">
-        <f t="shared" si="26"/>
-        <v>19.916666666666654</v>
-      </c>
-      <c r="I236" s="1">
-        <f t="shared" si="21"/>
-        <v>0.81944444444444398</v>
-      </c>
-      <c r="J236" s="1">
-        <f t="shared" si="22"/>
         <v>0.82986111111111061</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1194.9999999999993</v>
       </c>
       <c r="B237">
+        <f t="shared" si="27"/>
+        <v>1209.9999999999993</v>
+      </c>
+      <c r="E237" s="6">
+        <f t="shared" si="28"/>
+        <v>19.916666666666654</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="29"/>
+        <v>20.166666666666654</v>
+      </c>
+      <c r="I237" s="1">
         <f t="shared" si="24"/>
-        <v>1209.9999999999993</v>
-      </c>
-      <c r="E237" s="6">
+        <v>0.82986111111111061</v>
+      </c>
+      <c r="J237" s="1">
         <f t="shared" si="25"/>
-        <v>19.916666666666654</v>
-      </c>
-      <c r="F237" s="7">
-        <f t="shared" si="26"/>
-        <v>20.166666666666654</v>
-      </c>
-      <c r="I237" s="1">
-        <f t="shared" si="21"/>
-        <v>0.82986111111111061</v>
-      </c>
-      <c r="J237" s="1">
-        <f t="shared" si="22"/>
         <v>0.84027777777777724</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1209.9999999999993</v>
       </c>
       <c r="B238">
+        <f t="shared" si="27"/>
+        <v>1224.9999999999993</v>
+      </c>
+      <c r="E238" s="6">
+        <f t="shared" si="28"/>
+        <v>20.166666666666654</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="29"/>
+        <v>20.416666666666654</v>
+      </c>
+      <c r="I238" s="1">
         <f t="shared" si="24"/>
-        <v>1224.9999999999993</v>
-      </c>
-      <c r="E238" s="6">
+        <v>0.84027777777777724</v>
+      </c>
+      <c r="J238" s="1">
         <f t="shared" si="25"/>
-        <v>20.166666666666654</v>
-      </c>
-      <c r="F238" s="7">
-        <f t="shared" si="26"/>
-        <v>20.416666666666654</v>
-      </c>
-      <c r="I238" s="1">
-        <f t="shared" si="21"/>
-        <v>0.84027777777777724</v>
-      </c>
-      <c r="J238" s="1">
-        <f t="shared" si="22"/>
         <v>0.85069444444444386</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1224.9999999999993</v>
       </c>
       <c r="B239">
+        <f t="shared" si="27"/>
+        <v>1239.9999999999991</v>
+      </c>
+      <c r="E239" s="6">
+        <f t="shared" si="28"/>
+        <v>20.416666666666654</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="29"/>
+        <v>20.66666666666665</v>
+      </c>
+      <c r="I239" s="1">
         <f t="shared" si="24"/>
-        <v>1239.9999999999991</v>
-      </c>
-      <c r="E239" s="6">
+        <v>0.85069444444444386</v>
+      </c>
+      <c r="J239" s="1">
         <f t="shared" si="25"/>
-        <v>20.416666666666654</v>
-      </c>
-      <c r="F239" s="7">
-        <f t="shared" si="26"/>
-        <v>20.66666666666665</v>
-      </c>
-      <c r="I239" s="1">
-        <f t="shared" si="21"/>
-        <v>0.85069444444444386</v>
-      </c>
-      <c r="J239" s="1">
-        <f t="shared" si="22"/>
         <v>0.86111111111111049</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1239.9999999999991</v>
       </c>
       <c r="B240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1254.9999999999991</v>
       </c>
       <c r="E240" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>20.66666666666665</v>
       </c>
-      <c r="F240" s="7">
-        <f t="shared" si="26"/>
+      <c r="F240">
+        <f t="shared" si="29"/>
         <v>20.91666666666665</v>
       </c>
       <c r="I240" s="1">
@@ -7124,51 +7123,51 @@
         <v>0.86111111111111049</v>
       </c>
       <c r="J240" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.87152777777777712</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1254.9999999999991</v>
       </c>
       <c r="B241">
+        <f t="shared" si="27"/>
+        <v>1269.9999999999991</v>
+      </c>
+      <c r="E241" s="6">
+        <f t="shared" si="28"/>
+        <v>20.91666666666665</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="29"/>
+        <v>21.16666666666665</v>
+      </c>
+      <c r="I241" s="1">
         <f t="shared" si="24"/>
-        <v>1269.9999999999991</v>
-      </c>
-      <c r="E241" s="6">
+        <v>0.87152777777777712</v>
+      </c>
+      <c r="J241" s="1">
         <f t="shared" si="25"/>
-        <v>20.91666666666665</v>
-      </c>
-      <c r="F241" s="7">
-        <f t="shared" si="26"/>
-        <v>21.16666666666665</v>
-      </c>
-      <c r="I241" s="1">
-        <f t="shared" si="21"/>
-        <v>0.87152777777777712</v>
-      </c>
-      <c r="J241" s="1">
-        <f t="shared" si="22"/>
         <v>0.88194444444444375</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>435</v>
       </c>
       <c r="B242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>450</v>
       </c>
       <c r="E242" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7.25</v>
       </c>
-      <c r="F242" s="7">
-        <f t="shared" si="26"/>
+      <c r="F242">
+        <f t="shared" si="29"/>
         <v>7.5</v>
       </c>
       <c r="H242" t="s">
@@ -7185,19 +7184,19 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="B243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>465</v>
       </c>
       <c r="E243" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
-      <c r="F243" s="7">
-        <f t="shared" si="26"/>
+      <c r="F243">
+        <f t="shared" si="29"/>
         <v>7.75</v>
       </c>
       <c r="I243" s="1">
@@ -7211,590 +7210,590 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>465</v>
       </c>
       <c r="B244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>480</v>
       </c>
       <c r="E244" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7.75</v>
       </c>
-      <c r="F244" s="7">
-        <f t="shared" si="26"/>
+      <c r="F244">
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="I244" s="1">
-        <f t="shared" ref="I244:I296" si="27">I243+$Q$7</f>
+        <f t="shared" ref="I244:I288" si="30">I243+$Q$7</f>
         <v>0.32291666666666669</v>
       </c>
       <c r="J244" s="1">
-        <f t="shared" ref="J244:J296" si="28">I244+$Q$7</f>
+        <f t="shared" ref="J244:J288" si="31">I244+$Q$7</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>480</v>
       </c>
       <c r="B245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>495.00000000000011</v>
       </c>
       <c r="E245" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F245" s="7">
-        <f t="shared" si="26"/>
+      <c r="F245">
+        <f t="shared" si="29"/>
         <v>8.2500000000000018</v>
       </c>
       <c r="I245" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="J245" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.34375000000000006</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>495.00000000000011</v>
       </c>
       <c r="B246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>510.00000000000011</v>
       </c>
       <c r="E246" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8.2500000000000018</v>
       </c>
-      <c r="F246" s="7">
-        <f t="shared" si="26"/>
+      <c r="F246">
+        <f t="shared" si="29"/>
         <v>8.5000000000000018</v>
       </c>
       <c r="I246" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.34375000000000006</v>
       </c>
       <c r="J246" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.35416666666666674</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>510.00000000000011</v>
       </c>
       <c r="B247">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>525.00000000000011</v>
       </c>
       <c r="E247" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8.5000000000000018</v>
       </c>
-      <c r="F247" s="7">
-        <f t="shared" si="26"/>
+      <c r="F247">
+        <f t="shared" si="29"/>
         <v>8.7500000000000018</v>
       </c>
       <c r="I247" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.35416666666666674</v>
       </c>
       <c r="J247" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.36458333333333343</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>525.00000000000011</v>
       </c>
       <c r="B248">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>540.00000000000023</v>
       </c>
       <c r="E248" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8.7500000000000018</v>
       </c>
-      <c r="F248" s="7">
-        <f t="shared" si="26"/>
+      <c r="F248">
+        <f t="shared" si="29"/>
         <v>9.0000000000000036</v>
       </c>
       <c r="I248" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.36458333333333343</v>
       </c>
       <c r="J248" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.37500000000000011</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>540.00000000000023</v>
       </c>
       <c r="B249">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>555.00000000000023</v>
       </c>
       <c r="E249" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.0000000000000036</v>
       </c>
-      <c r="F249" s="7">
-        <f t="shared" si="26"/>
+      <c r="F249">
+        <f t="shared" si="29"/>
         <v>9.2500000000000036</v>
       </c>
       <c r="I249" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.37500000000000011</v>
       </c>
       <c r="J249" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.3854166666666668</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>555.00000000000023</v>
       </c>
       <c r="B250">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>570.00000000000023</v>
       </c>
       <c r="E250" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.2500000000000036</v>
       </c>
-      <c r="F250" s="7">
-        <f t="shared" si="26"/>
+      <c r="F250">
+        <f t="shared" si="29"/>
         <v>9.5000000000000036</v>
       </c>
       <c r="I250" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.3854166666666668</v>
       </c>
       <c r="J250" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.39583333333333348</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>570.00000000000023</v>
       </c>
       <c r="B251">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>585.00000000000023</v>
       </c>
       <c r="E251" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.5000000000000036</v>
       </c>
-      <c r="F251" s="7">
-        <f t="shared" si="26"/>
+      <c r="F251">
+        <f t="shared" si="29"/>
         <v>9.7500000000000036</v>
       </c>
       <c r="I251" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.39583333333333348</v>
       </c>
       <c r="J251" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.40625000000000017</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>585.00000000000023</v>
       </c>
       <c r="B252">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>600.00000000000023</v>
       </c>
       <c r="E252" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9.7500000000000036</v>
       </c>
-      <c r="F252" s="7">
-        <f t="shared" si="26"/>
+      <c r="F252">
+        <f t="shared" si="29"/>
         <v>10.000000000000004</v>
       </c>
       <c r="I252" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.40625000000000017</v>
       </c>
       <c r="J252" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.41666666666666685</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>600.00000000000023</v>
       </c>
       <c r="B253">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>615.00000000000034</v>
       </c>
       <c r="E253" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10.000000000000004</v>
       </c>
-      <c r="F253" s="7">
-        <f t="shared" si="26"/>
+      <c r="F253">
+        <f t="shared" si="29"/>
         <v>10.250000000000005</v>
       </c>
       <c r="I253" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.41666666666666685</v>
       </c>
       <c r="J253" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.42708333333333354</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>615.00000000000034</v>
       </c>
       <c r="B254">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>630.00000000000034</v>
       </c>
       <c r="E254" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10.250000000000005</v>
       </c>
-      <c r="F254" s="7">
-        <f t="shared" si="26"/>
+      <c r="F254">
+        <f t="shared" si="29"/>
         <v>10.500000000000005</v>
       </c>
       <c r="I254" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.42708333333333354</v>
       </c>
       <c r="J254" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.43750000000000022</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>630.00000000000034</v>
       </c>
       <c r="B255">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>645.00000000000034</v>
       </c>
       <c r="E255" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10.500000000000005</v>
       </c>
-      <c r="F255" s="7">
-        <f t="shared" si="26"/>
+      <c r="F255">
+        <f t="shared" si="29"/>
         <v>10.750000000000005</v>
       </c>
       <c r="I255" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.43750000000000022</v>
       </c>
       <c r="J255" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.44791666666666691</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>645.00000000000034</v>
       </c>
       <c r="B256">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>660.00000000000045</v>
       </c>
       <c r="E256" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10.750000000000005</v>
       </c>
-      <c r="F256" s="7">
-        <f t="shared" si="26"/>
+      <c r="F256">
+        <f t="shared" si="29"/>
         <v>11.000000000000007</v>
       </c>
       <c r="I256" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.44791666666666691</v>
       </c>
       <c r="J256" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.45833333333333359</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>660.00000000000045</v>
       </c>
       <c r="B257">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>675.00000000000045</v>
       </c>
       <c r="E257" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11.000000000000007</v>
       </c>
-      <c r="F257" s="7">
-        <f t="shared" si="26"/>
+      <c r="F257">
+        <f t="shared" si="29"/>
         <v>11.250000000000007</v>
       </c>
       <c r="I257" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.45833333333333359</v>
       </c>
       <c r="J257" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.46875000000000028</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>675.00000000000045</v>
       </c>
       <c r="B258">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>690.00000000000045</v>
       </c>
       <c r="E258" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11.250000000000007</v>
       </c>
-      <c r="F258" s="7">
-        <f t="shared" si="26"/>
+      <c r="F258">
+        <f t="shared" si="29"/>
         <v>11.500000000000007</v>
       </c>
       <c r="I258" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.46875000000000028</v>
       </c>
       <c r="J258" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.47916666666666696</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
-        <f t="shared" ref="A259:A310" si="29">CONVERT(E259,"hr","mn")</f>
+        <f t="shared" ref="A259:A310" si="32">CONVERT(E259,"hr","mn")</f>
         <v>690.00000000000045</v>
       </c>
       <c r="B259">
-        <f t="shared" ref="B259:B310" si="30">CONVERT(F259,"hr","mn")</f>
+        <f t="shared" ref="B259:B310" si="33">CONVERT(F259,"hr","mn")</f>
         <v>705.00000000000045</v>
       </c>
       <c r="E259" s="6">
-        <f t="shared" ref="E259:E310" si="31">I259*24</f>
+        <f t="shared" ref="E259:E310" si="34">I259*24</f>
         <v>11.500000000000007</v>
       </c>
-      <c r="F259" s="7">
-        <f t="shared" ref="F259:F310" si="32">J259*24</f>
+      <c r="F259">
+        <f t="shared" ref="F259:F310" si="35">J259*24</f>
         <v>11.750000000000007</v>
       </c>
       <c r="I259" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.47916666666666696</v>
       </c>
       <c r="J259" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.48958333333333365</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>705.00000000000045</v>
       </c>
       <c r="B260">
+        <f t="shared" si="33"/>
+        <v>720.00000000000045</v>
+      </c>
+      <c r="E260" s="6">
+        <f t="shared" si="34"/>
+        <v>11.750000000000007</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="35"/>
+        <v>12.000000000000007</v>
+      </c>
+      <c r="I260" s="1">
         <f t="shared" si="30"/>
-        <v>720.00000000000045</v>
-      </c>
-      <c r="E260" s="6">
+        <v>0.48958333333333365</v>
+      </c>
+      <c r="J260" s="1">
         <f t="shared" si="31"/>
-        <v>11.750000000000007</v>
-      </c>
-      <c r="F260" s="7">
-        <f t="shared" si="32"/>
-        <v>12.000000000000007</v>
-      </c>
-      <c r="I260" s="1">
-        <f t="shared" si="27"/>
-        <v>0.48958333333333365</v>
-      </c>
-      <c r="J260" s="1">
-        <f t="shared" si="28"/>
         <v>0.50000000000000033</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>720.00000000000045</v>
       </c>
       <c r="B261">
+        <f t="shared" si="33"/>
+        <v>735.00000000000045</v>
+      </c>
+      <c r="E261" s="6">
+        <f t="shared" si="34"/>
+        <v>12.000000000000007</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="35"/>
+        <v>12.250000000000007</v>
+      </c>
+      <c r="I261" s="1">
         <f t="shared" si="30"/>
-        <v>735.00000000000045</v>
-      </c>
-      <c r="E261" s="6">
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="J261" s="1">
         <f t="shared" si="31"/>
-        <v>12.000000000000007</v>
-      </c>
-      <c r="F261" s="7">
-        <f t="shared" si="32"/>
-        <v>12.250000000000007</v>
-      </c>
-      <c r="I261" s="1">
-        <f t="shared" si="27"/>
-        <v>0.50000000000000033</v>
-      </c>
-      <c r="J261" s="1">
-        <f t="shared" si="28"/>
         <v>0.51041666666666696</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>735.00000000000045</v>
       </c>
       <c r="B262">
+        <f t="shared" si="33"/>
+        <v>750.00000000000045</v>
+      </c>
+      <c r="E262" s="6">
+        <f t="shared" si="34"/>
+        <v>12.250000000000007</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="35"/>
+        <v>12.500000000000007</v>
+      </c>
+      <c r="I262" s="1">
         <f t="shared" si="30"/>
-        <v>750.00000000000045</v>
-      </c>
-      <c r="E262" s="6">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="J262" s="1">
         <f t="shared" si="31"/>
-        <v>12.250000000000007</v>
-      </c>
-      <c r="F262" s="7">
-        <f t="shared" si="32"/>
-        <v>12.500000000000007</v>
-      </c>
-      <c r="I262" s="1">
-        <f t="shared" si="27"/>
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="J262" s="1">
-        <f t="shared" si="28"/>
         <v>0.52083333333333359</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>750.00000000000045</v>
       </c>
       <c r="B263">
+        <f t="shared" si="33"/>
+        <v>765.00000000000034</v>
+      </c>
+      <c r="E263" s="6">
+        <f t="shared" si="34"/>
+        <v>12.500000000000007</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="35"/>
+        <v>12.750000000000005</v>
+      </c>
+      <c r="I263" s="1">
         <f t="shared" si="30"/>
-        <v>765.00000000000034</v>
-      </c>
-      <c r="E263" s="6">
+        <v>0.52083333333333359</v>
+      </c>
+      <c r="J263" s="1">
         <f t="shared" si="31"/>
-        <v>12.500000000000007</v>
-      </c>
-      <c r="F263" s="7">
-        <f t="shared" si="32"/>
-        <v>12.750000000000005</v>
-      </c>
-      <c r="I263" s="1">
-        <f t="shared" si="27"/>
-        <v>0.52083333333333359</v>
-      </c>
-      <c r="J263" s="1">
-        <f t="shared" si="28"/>
         <v>0.53125000000000022</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>765.00000000000034</v>
       </c>
       <c r="B264">
+        <f t="shared" si="33"/>
+        <v>780.00000000000023</v>
+      </c>
+      <c r="E264" s="6">
+        <f t="shared" si="34"/>
+        <v>12.750000000000005</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="35"/>
+        <v>13.000000000000004</v>
+      </c>
+      <c r="I264" s="1">
         <f t="shared" si="30"/>
-        <v>780.00000000000023</v>
-      </c>
-      <c r="E264" s="6">
+        <v>0.53125000000000022</v>
+      </c>
+      <c r="J264" s="1">
         <f t="shared" si="31"/>
-        <v>12.750000000000005</v>
-      </c>
-      <c r="F264" s="7">
-        <f t="shared" si="32"/>
-        <v>13.000000000000004</v>
-      </c>
-      <c r="I264" s="1">
-        <f t="shared" si="27"/>
-        <v>0.53125000000000022</v>
-      </c>
-      <c r="J264" s="1">
-        <f t="shared" si="28"/>
         <v>0.54166666666666685</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>865</v>
       </c>
       <c r="B265">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>879.99999999999989</v>
       </c>
       <c r="E265" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14.416666666666666</v>
       </c>
-      <c r="F265" s="7">
-        <f t="shared" si="32"/>
+      <c r="F265">
+        <f t="shared" si="35"/>
         <v>14.666666666666664</v>
       </c>
       <c r="I265" s="1">
         <v>0.60069444444444442</v>
       </c>
       <c r="J265" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>879.99999999999989</v>
       </c>
       <c r="B266">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>894.99999999999989</v>
       </c>
       <c r="E266" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14.666666666666664</v>
       </c>
-      <c r="F266" s="7">
-        <f t="shared" si="32"/>
+      <c r="F266">
+        <f t="shared" si="35"/>
         <v>14.916666666666664</v>
       </c>
       <c r="I266" s="1">
@@ -7802,415 +7801,415 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="J266" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62152777777777768</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>894.99999999999989</v>
       </c>
       <c r="B267">
+        <f t="shared" si="33"/>
+        <v>909.99999999999989</v>
+      </c>
+      <c r="E267" s="6">
+        <f t="shared" si="34"/>
+        <v>14.916666666666664</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="35"/>
+        <v>15.166666666666664</v>
+      </c>
+      <c r="I267" s="1">
         <f t="shared" si="30"/>
-        <v>909.99999999999989</v>
-      </c>
-      <c r="E267" s="6">
+        <v>0.62152777777777768</v>
+      </c>
+      <c r="J267" s="1">
         <f t="shared" si="31"/>
-        <v>14.916666666666664</v>
-      </c>
-      <c r="F267" s="7">
-        <f t="shared" si="32"/>
-        <v>15.166666666666664</v>
-      </c>
-      <c r="I267" s="1">
-        <f t="shared" si="27"/>
-        <v>0.62152777777777768</v>
-      </c>
-      <c r="J267" s="1">
-        <f t="shared" si="28"/>
         <v>0.63194444444444431</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>909.99999999999989</v>
       </c>
       <c r="B268">
+        <f t="shared" si="33"/>
+        <v>924.99999999999977</v>
+      </c>
+      <c r="E268" s="6">
+        <f t="shared" si="34"/>
+        <v>15.166666666666664</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="35"/>
+        <v>15.416666666666663</v>
+      </c>
+      <c r="I268" s="1">
         <f t="shared" si="30"/>
-        <v>924.99999999999977</v>
-      </c>
-      <c r="E268" s="6">
+        <v>0.63194444444444431</v>
+      </c>
+      <c r="J268" s="1">
         <f t="shared" si="31"/>
-        <v>15.166666666666664</v>
-      </c>
-      <c r="F268" s="7">
-        <f t="shared" si="32"/>
-        <v>15.416666666666663</v>
-      </c>
-      <c r="I268" s="1">
-        <f t="shared" si="27"/>
-        <v>0.63194444444444431</v>
-      </c>
-      <c r="J268" s="1">
-        <f t="shared" si="28"/>
         <v>0.64236111111111094</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>924.99999999999977</v>
       </c>
       <c r="B269">
+        <f t="shared" si="33"/>
+        <v>939.99999999999966</v>
+      </c>
+      <c r="E269" s="6">
+        <f t="shared" si="34"/>
+        <v>15.416666666666663</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="35"/>
+        <v>15.666666666666661</v>
+      </c>
+      <c r="I269" s="1">
         <f t="shared" si="30"/>
-        <v>939.99999999999966</v>
-      </c>
-      <c r="E269" s="6">
+        <v>0.64236111111111094</v>
+      </c>
+      <c r="J269" s="1">
         <f t="shared" si="31"/>
-        <v>15.416666666666663</v>
-      </c>
-      <c r="F269" s="7">
-        <f t="shared" si="32"/>
-        <v>15.666666666666661</v>
-      </c>
-      <c r="I269" s="1">
-        <f t="shared" si="27"/>
-        <v>0.64236111111111094</v>
-      </c>
-      <c r="J269" s="1">
-        <f t="shared" si="28"/>
         <v>0.65277777777777757</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>939.99999999999966</v>
       </c>
       <c r="B270">
+        <f t="shared" si="33"/>
+        <v>954.99999999999966</v>
+      </c>
+      <c r="E270" s="6">
+        <f t="shared" si="34"/>
+        <v>15.666666666666661</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="35"/>
+        <v>15.916666666666661</v>
+      </c>
+      <c r="I270" s="1">
         <f t="shared" si="30"/>
-        <v>954.99999999999966</v>
-      </c>
-      <c r="E270" s="6">
+        <v>0.65277777777777757</v>
+      </c>
+      <c r="J270" s="1">
         <f t="shared" si="31"/>
-        <v>15.666666666666661</v>
-      </c>
-      <c r="F270" s="7">
-        <f t="shared" si="32"/>
-        <v>15.916666666666661</v>
-      </c>
-      <c r="I270" s="1">
-        <f t="shared" si="27"/>
-        <v>0.65277777777777757</v>
-      </c>
-      <c r="J270" s="1">
-        <f t="shared" si="28"/>
         <v>0.6631944444444442</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>954.99999999999966</v>
       </c>
       <c r="B271">
+        <f t="shared" si="33"/>
+        <v>969.99999999999966</v>
+      </c>
+      <c r="E271" s="6">
+        <f t="shared" si="34"/>
+        <v>15.916666666666661</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="35"/>
+        <v>16.166666666666661</v>
+      </c>
+      <c r="I271" s="1">
         <f t="shared" si="30"/>
-        <v>969.99999999999966</v>
-      </c>
-      <c r="E271" s="6">
+        <v>0.6631944444444442</v>
+      </c>
+      <c r="J271" s="1">
         <f t="shared" si="31"/>
-        <v>15.916666666666661</v>
-      </c>
-      <c r="F271" s="7">
-        <f t="shared" si="32"/>
-        <v>16.166666666666661</v>
-      </c>
-      <c r="I271" s="1">
-        <f t="shared" si="27"/>
-        <v>0.6631944444444442</v>
-      </c>
-      <c r="J271" s="1">
-        <f t="shared" si="28"/>
         <v>0.67361111111111083</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>969.99999999999966</v>
       </c>
       <c r="B272">
+        <f t="shared" si="33"/>
+        <v>984.99999999999943</v>
+      </c>
+      <c r="E272" s="6">
+        <f t="shared" si="34"/>
+        <v>16.166666666666661</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="35"/>
+        <v>16.416666666666657</v>
+      </c>
+      <c r="I272" s="1">
         <f t="shared" si="30"/>
-        <v>984.99999999999943</v>
-      </c>
-      <c r="E272" s="6">
+        <v>0.67361111111111083</v>
+      </c>
+      <c r="J272" s="1">
         <f t="shared" si="31"/>
-        <v>16.166666666666661</v>
-      </c>
-      <c r="F272" s="7">
-        <f t="shared" si="32"/>
-        <v>16.416666666666657</v>
-      </c>
-      <c r="I272" s="1">
-        <f t="shared" si="27"/>
-        <v>0.67361111111111083</v>
-      </c>
-      <c r="J272" s="1">
-        <f t="shared" si="28"/>
         <v>0.68402777777777746</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>984.99999999999943</v>
       </c>
       <c r="B273">
+        <f t="shared" si="33"/>
+        <v>999.99999999999943</v>
+      </c>
+      <c r="E273" s="6">
+        <f t="shared" si="34"/>
+        <v>16.416666666666657</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="35"/>
+        <v>16.666666666666657</v>
+      </c>
+      <c r="I273" s="1">
         <f t="shared" si="30"/>
-        <v>999.99999999999943</v>
-      </c>
-      <c r="E273" s="6">
+        <v>0.68402777777777746</v>
+      </c>
+      <c r="J273" s="1">
         <f t="shared" si="31"/>
-        <v>16.416666666666657</v>
-      </c>
-      <c r="F273" s="7">
-        <f t="shared" si="32"/>
-        <v>16.666666666666657</v>
-      </c>
-      <c r="I273" s="1">
-        <f t="shared" si="27"/>
-        <v>0.68402777777777746</v>
-      </c>
-      <c r="J273" s="1">
-        <f t="shared" si="28"/>
         <v>0.69444444444444409</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>999.99999999999943</v>
       </c>
       <c r="B274">
+        <f t="shared" si="33"/>
+        <v>1014.9999999999994</v>
+      </c>
+      <c r="E274" s="6">
+        <f t="shared" si="34"/>
+        <v>16.666666666666657</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="35"/>
+        <v>16.916666666666657</v>
+      </c>
+      <c r="I274" s="1">
         <f t="shared" si="30"/>
-        <v>1014.9999999999994</v>
-      </c>
-      <c r="E274" s="6">
+        <v>0.69444444444444409</v>
+      </c>
+      <c r="J274" s="1">
         <f t="shared" si="31"/>
-        <v>16.666666666666657</v>
-      </c>
-      <c r="F274" s="7">
-        <f t="shared" si="32"/>
-        <v>16.916666666666657</v>
-      </c>
-      <c r="I274" s="1">
-        <f t="shared" si="27"/>
-        <v>0.69444444444444409</v>
-      </c>
-      <c r="J274" s="1">
-        <f t="shared" si="28"/>
         <v>0.70486111111111072</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1014.9999999999994</v>
       </c>
       <c r="B275">
+        <f t="shared" si="33"/>
+        <v>1029.9999999999993</v>
+      </c>
+      <c r="E275" s="6">
+        <f t="shared" si="34"/>
+        <v>16.916666666666657</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="35"/>
+        <v>17.166666666666657</v>
+      </c>
+      <c r="I275" s="1">
         <f t="shared" si="30"/>
-        <v>1029.9999999999993</v>
-      </c>
-      <c r="E275" s="6">
+        <v>0.70486111111111072</v>
+      </c>
+      <c r="J275" s="1">
         <f t="shared" si="31"/>
-        <v>16.916666666666657</v>
-      </c>
-      <c r="F275" s="7">
-        <f t="shared" si="32"/>
-        <v>17.166666666666657</v>
-      </c>
-      <c r="I275" s="1">
-        <f t="shared" si="27"/>
-        <v>0.70486111111111072</v>
-      </c>
-      <c r="J275" s="1">
-        <f t="shared" si="28"/>
         <v>0.71527777777777735</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1029.9999999999993</v>
       </c>
       <c r="B276">
+        <f t="shared" si="33"/>
+        <v>1044.9999999999993</v>
+      </c>
+      <c r="E276" s="6">
+        <f t="shared" si="34"/>
+        <v>17.166666666666657</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="35"/>
+        <v>17.416666666666657</v>
+      </c>
+      <c r="I276" s="1">
         <f t="shared" si="30"/>
-        <v>1044.9999999999993</v>
-      </c>
-      <c r="E276" s="6">
+        <v>0.71527777777777735</v>
+      </c>
+      <c r="J276" s="1">
         <f t="shared" si="31"/>
-        <v>17.166666666666657</v>
-      </c>
-      <c r="F276" s="7">
-        <f t="shared" si="32"/>
-        <v>17.416666666666657</v>
-      </c>
-      <c r="I276" s="1">
-        <f t="shared" si="27"/>
-        <v>0.71527777777777735</v>
-      </c>
-      <c r="J276" s="1">
-        <f t="shared" si="28"/>
         <v>0.72569444444444398</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1044.9999999999993</v>
       </c>
       <c r="B277">
+        <f t="shared" si="33"/>
+        <v>1059.9999999999993</v>
+      </c>
+      <c r="E277" s="6">
+        <f t="shared" si="34"/>
+        <v>17.416666666666657</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="35"/>
+        <v>17.666666666666654</v>
+      </c>
+      <c r="I277" s="1">
         <f t="shared" si="30"/>
-        <v>1059.9999999999993</v>
-      </c>
-      <c r="E277" s="6">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="J277" s="1">
         <f t="shared" si="31"/>
-        <v>17.416666666666657</v>
-      </c>
-      <c r="F277" s="7">
-        <f t="shared" si="32"/>
-        <v>17.666666666666654</v>
-      </c>
-      <c r="I277" s="1">
-        <f t="shared" si="27"/>
-        <v>0.72569444444444398</v>
-      </c>
-      <c r="J277" s="1">
-        <f t="shared" si="28"/>
         <v>0.73611111111111061</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1059.9999999999993</v>
       </c>
       <c r="B278">
+        <f t="shared" si="33"/>
+        <v>1074.9999999999993</v>
+      </c>
+      <c r="E278" s="6">
+        <f t="shared" si="34"/>
+        <v>17.666666666666654</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="35"/>
+        <v>17.916666666666654</v>
+      </c>
+      <c r="I278" s="1">
         <f t="shared" si="30"/>
-        <v>1074.9999999999993</v>
-      </c>
-      <c r="E278" s="6">
+        <v>0.73611111111111061</v>
+      </c>
+      <c r="J278" s="1">
         <f t="shared" si="31"/>
-        <v>17.666666666666654</v>
-      </c>
-      <c r="F278" s="7">
-        <f t="shared" si="32"/>
-        <v>17.916666666666654</v>
-      </c>
-      <c r="I278" s="1">
-        <f t="shared" si="27"/>
-        <v>0.73611111111111061</v>
-      </c>
-      <c r="J278" s="1">
-        <f t="shared" si="28"/>
         <v>0.74652777777777724</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1074.9999999999993</v>
       </c>
       <c r="B279">
+        <f t="shared" si="33"/>
+        <v>1089.9999999999993</v>
+      </c>
+      <c r="E279" s="6">
+        <f t="shared" si="34"/>
+        <v>17.916666666666654</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="35"/>
+        <v>18.166666666666654</v>
+      </c>
+      <c r="I279" s="1">
         <f t="shared" si="30"/>
-        <v>1089.9999999999993</v>
-      </c>
-      <c r="E279" s="6">
+        <v>0.74652777777777724</v>
+      </c>
+      <c r="J279" s="1">
         <f t="shared" si="31"/>
-        <v>17.916666666666654</v>
-      </c>
-      <c r="F279" s="7">
-        <f t="shared" si="32"/>
-        <v>18.166666666666654</v>
-      </c>
-      <c r="I279" s="1">
-        <f t="shared" si="27"/>
-        <v>0.74652777777777724</v>
-      </c>
-      <c r="J279" s="1">
-        <f t="shared" si="28"/>
         <v>0.75694444444444386</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1089.9999999999993</v>
       </c>
       <c r="B280">
+        <f t="shared" si="33"/>
+        <v>1104.9999999999991</v>
+      </c>
+      <c r="E280" s="6">
+        <f t="shared" si="34"/>
+        <v>18.166666666666654</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="35"/>
+        <v>18.41666666666665</v>
+      </c>
+      <c r="I280" s="1">
         <f t="shared" si="30"/>
-        <v>1104.9999999999991</v>
-      </c>
-      <c r="E280" s="6">
+        <v>0.75694444444444386</v>
+      </c>
+      <c r="J280" s="1">
         <f t="shared" si="31"/>
-        <v>18.166666666666654</v>
-      </c>
-      <c r="F280" s="7">
-        <f t="shared" si="32"/>
-        <v>18.41666666666665</v>
-      </c>
-      <c r="I280" s="1">
-        <f t="shared" si="27"/>
-        <v>0.75694444444444386</v>
-      </c>
-      <c r="J280" s="1">
-        <f t="shared" si="28"/>
         <v>0.76736111111111049</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1104.9999999999991</v>
       </c>
       <c r="B281">
+        <f t="shared" si="33"/>
+        <v>1119.9999999999991</v>
+      </c>
+      <c r="E281" s="6">
+        <f t="shared" si="34"/>
+        <v>18.41666666666665</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="35"/>
+        <v>18.66666666666665</v>
+      </c>
+      <c r="I281" s="1">
         <f t="shared" si="30"/>
-        <v>1119.9999999999991</v>
-      </c>
-      <c r="E281" s="6">
+        <v>0.76736111111111049</v>
+      </c>
+      <c r="J281" s="1">
         <f t="shared" si="31"/>
-        <v>18.41666666666665</v>
-      </c>
-      <c r="F281" s="7">
-        <f t="shared" si="32"/>
-        <v>18.66666666666665</v>
-      </c>
-      <c r="I281" s="1">
-        <f t="shared" si="27"/>
-        <v>0.76736111111111049</v>
-      </c>
-      <c r="J281" s="1">
-        <f t="shared" si="28"/>
         <v>0.77777777777777712</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1119.9999999999991</v>
       </c>
       <c r="B282">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1134.9999999999991</v>
       </c>
       <c r="E282" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18.66666666666665</v>
       </c>
-      <c r="F282" s="7">
-        <f t="shared" si="32"/>
+      <c r="F282">
+        <f t="shared" si="35"/>
         <v>18.91666666666665</v>
       </c>
       <c r="I282" s="1">
@@ -8218,181 +8217,181 @@
         <v>0.77777777777777712</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.78819444444444375</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1134.9999999999991</v>
       </c>
       <c r="B283">
+        <f t="shared" si="33"/>
+        <v>1149.9999999999991</v>
+      </c>
+      <c r="E283" s="6">
+        <f t="shared" si="34"/>
+        <v>18.91666666666665</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="35"/>
+        <v>19.16666666666665</v>
+      </c>
+      <c r="I283" s="1">
         <f t="shared" si="30"/>
-        <v>1149.9999999999991</v>
-      </c>
-      <c r="E283" s="6">
+        <v>0.78819444444444375</v>
+      </c>
+      <c r="J283" s="1">
         <f t="shared" si="31"/>
-        <v>18.91666666666665</v>
-      </c>
-      <c r="F283" s="7">
-        <f t="shared" si="32"/>
-        <v>19.16666666666665</v>
-      </c>
-      <c r="I283" s="1">
-        <f t="shared" si="27"/>
-        <v>0.78819444444444375</v>
-      </c>
-      <c r="J283" s="1">
-        <f t="shared" si="28"/>
         <v>0.79861111111111038</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1149.9999999999991</v>
       </c>
       <c r="B284">
+        <f t="shared" si="33"/>
+        <v>1164.9999999999991</v>
+      </c>
+      <c r="E284" s="6">
+        <f t="shared" si="34"/>
+        <v>19.16666666666665</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="35"/>
+        <v>19.41666666666665</v>
+      </c>
+      <c r="I284" s="1">
         <f t="shared" si="30"/>
-        <v>1164.9999999999991</v>
-      </c>
-      <c r="E284" s="6">
+        <v>0.79861111111111038</v>
+      </c>
+      <c r="J284" s="1">
         <f t="shared" si="31"/>
-        <v>19.16666666666665</v>
-      </c>
-      <c r="F284" s="7">
-        <f t="shared" si="32"/>
-        <v>19.41666666666665</v>
-      </c>
-      <c r="I284" s="1">
-        <f t="shared" si="27"/>
-        <v>0.79861111111111038</v>
-      </c>
-      <c r="J284" s="1">
-        <f t="shared" si="28"/>
         <v>0.80902777777777701</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1164.9999999999991</v>
       </c>
       <c r="B285">
+        <f t="shared" si="33"/>
+        <v>1179.9999999999989</v>
+      </c>
+      <c r="E285" s="6">
+        <f t="shared" si="34"/>
+        <v>19.41666666666665</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="35"/>
+        <v>19.666666666666647</v>
+      </c>
+      <c r="I285" s="1">
         <f t="shared" si="30"/>
-        <v>1179.9999999999989</v>
-      </c>
-      <c r="E285" s="6">
+        <v>0.80902777777777701</v>
+      </c>
+      <c r="J285" s="1">
         <f t="shared" si="31"/>
-        <v>19.41666666666665</v>
-      </c>
-      <c r="F285" s="7">
-        <f t="shared" si="32"/>
-        <v>19.666666666666647</v>
-      </c>
-      <c r="I285" s="1">
-        <f t="shared" si="27"/>
-        <v>0.80902777777777701</v>
-      </c>
-      <c r="J285" s="1">
-        <f t="shared" si="28"/>
         <v>0.81944444444444364</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1179.9999999999989</v>
       </c>
       <c r="B286">
+        <f t="shared" si="33"/>
+        <v>1194.9999999999989</v>
+      </c>
+      <c r="E286" s="6">
+        <f t="shared" si="34"/>
+        <v>19.666666666666647</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="35"/>
+        <v>19.916666666666647</v>
+      </c>
+      <c r="I286" s="1">
         <f t="shared" si="30"/>
-        <v>1194.9999999999989</v>
-      </c>
-      <c r="E286" s="6">
+        <v>0.81944444444444364</v>
+      </c>
+      <c r="J286" s="1">
         <f t="shared" si="31"/>
-        <v>19.666666666666647</v>
-      </c>
-      <c r="F286" s="7">
-        <f t="shared" si="32"/>
-        <v>19.916666666666647</v>
-      </c>
-      <c r="I286" s="1">
-        <f t="shared" si="27"/>
-        <v>0.81944444444444364</v>
-      </c>
-      <c r="J286" s="1">
-        <f t="shared" si="28"/>
         <v>0.82986111111111027</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1194.9999999999989</v>
       </c>
       <c r="B287">
+        <f t="shared" si="33"/>
+        <v>1209.9999999999989</v>
+      </c>
+      <c r="E287" s="6">
+        <f t="shared" si="34"/>
+        <v>19.916666666666647</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="35"/>
+        <v>20.166666666666647</v>
+      </c>
+      <c r="I287" s="1">
         <f t="shared" si="30"/>
-        <v>1209.9999999999989</v>
-      </c>
-      <c r="E287" s="6">
+        <v>0.82986111111111027</v>
+      </c>
+      <c r="J287" s="1">
         <f t="shared" si="31"/>
-        <v>19.916666666666647</v>
-      </c>
-      <c r="F287" s="7">
-        <f t="shared" si="32"/>
-        <v>20.166666666666647</v>
-      </c>
-      <c r="I287" s="1">
-        <f t="shared" si="27"/>
-        <v>0.82986111111111027</v>
-      </c>
-      <c r="J287" s="1">
-        <f t="shared" si="28"/>
         <v>0.8402777777777769</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1209.9999999999989</v>
       </c>
       <c r="B288">
+        <f t="shared" si="33"/>
+        <v>1224.9999999999986</v>
+      </c>
+      <c r="E288" s="6">
+        <f t="shared" si="34"/>
+        <v>20.166666666666647</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="35"/>
+        <v>20.416666666666643</v>
+      </c>
+      <c r="I288" s="1">
         <f t="shared" si="30"/>
-        <v>1224.9999999999986</v>
-      </c>
-      <c r="E288" s="6">
+        <v>0.8402777777777769</v>
+      </c>
+      <c r="J288" s="1">
         <f t="shared" si="31"/>
-        <v>20.166666666666647</v>
-      </c>
-      <c r="F288" s="7">
-        <f t="shared" si="32"/>
-        <v>20.416666666666643</v>
-      </c>
-      <c r="I288" s="1">
-        <f t="shared" si="27"/>
-        <v>0.8402777777777769</v>
-      </c>
-      <c r="J288" s="1">
-        <f t="shared" si="28"/>
         <v>0.85069444444444353</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>435</v>
       </c>
       <c r="B289">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>464.99999999999994</v>
       </c>
       <c r="E289" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7.25</v>
       </c>
-      <c r="F289" s="7">
-        <f t="shared" si="32"/>
+      <c r="F289">
+        <f t="shared" si="35"/>
         <v>7.7499999999999991</v>
       </c>
       <c r="H289" t="s">
@@ -8409,19 +8408,19 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>464.99999999999994</v>
       </c>
       <c r="B290">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>494.99999999999989</v>
       </c>
       <c r="E290" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7.7499999999999991</v>
       </c>
-      <c r="F290" s="7">
-        <f t="shared" si="32"/>
+      <c r="F290">
+        <f t="shared" si="35"/>
         <v>8.2499999999999982</v>
       </c>
       <c r="I290" s="1">
@@ -8435,521 +8434,521 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>494.99999999999989</v>
       </c>
       <c r="B291">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>524.99999999999989</v>
       </c>
       <c r="E291" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.2499999999999982</v>
       </c>
-      <c r="F291" s="7">
-        <f t="shared" si="32"/>
+      <c r="F291">
+        <f t="shared" si="35"/>
         <v>8.7499999999999982</v>
       </c>
       <c r="I291" s="1">
-        <f t="shared" ref="I291:I312" si="33">I290+$Q$8</f>
+        <f t="shared" ref="I291:I310" si="36">I290+$Q$8</f>
         <v>0.34374999999999994</v>
       </c>
       <c r="J291" s="1">
-        <f t="shared" ref="J291:J312" si="34">I291+$Q$8</f>
+        <f t="shared" ref="J291:J310" si="37">I291+$Q$8</f>
         <v>0.36458333333333326</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>524.99999999999989</v>
       </c>
       <c r="B292">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>554.99999999999989</v>
       </c>
       <c r="E292" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.7499999999999982</v>
       </c>
-      <c r="F292" s="7">
-        <f t="shared" si="32"/>
+      <c r="F292">
+        <f t="shared" si="35"/>
         <v>9.2499999999999982</v>
       </c>
       <c r="I292" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.36458333333333326</v>
       </c>
       <c r="J292" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.38541666666666657</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>554.99999999999989</v>
       </c>
       <c r="B293">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>584.99999999999977</v>
       </c>
       <c r="E293" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9.2499999999999982</v>
       </c>
-      <c r="F293" s="7">
-        <f t="shared" si="32"/>
+      <c r="F293">
+        <f t="shared" si="35"/>
         <v>9.7499999999999964</v>
       </c>
       <c r="I293" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.38541666666666657</v>
       </c>
       <c r="J293" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.40624999999999989</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>584.99999999999977</v>
       </c>
       <c r="B294">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>614.99999999999977</v>
       </c>
       <c r="E294" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9.7499999999999964</v>
       </c>
-      <c r="F294" s="7">
-        <f t="shared" si="32"/>
+      <c r="F294">
+        <f t="shared" si="35"/>
         <v>10.249999999999996</v>
       </c>
       <c r="I294" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.40624999999999989</v>
       </c>
       <c r="J294" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.4270833333333332</v>
       </c>
       <c r="K294" s="1"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>614.99999999999977</v>
       </c>
       <c r="B295">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>644.99999999999977</v>
       </c>
       <c r="E295" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>10.249999999999996</v>
       </c>
-      <c r="F295" s="7">
-        <f t="shared" si="32"/>
+      <c r="F295">
+        <f t="shared" si="35"/>
         <v>10.749999999999996</v>
       </c>
       <c r="I295" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.4270833333333332</v>
       </c>
       <c r="J295" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.44791666666666652</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>644.99999999999977</v>
       </c>
       <c r="B296">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>674.99999999999977</v>
       </c>
       <c r="E296" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>10.749999999999996</v>
       </c>
-      <c r="F296" s="7">
-        <f t="shared" si="32"/>
+      <c r="F296">
+        <f t="shared" si="35"/>
         <v>11.249999999999996</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.44791666666666652</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.46874999999999983</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>674.99999999999977</v>
       </c>
       <c r="B297">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>704.99999999999977</v>
       </c>
       <c r="E297" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11.249999999999996</v>
       </c>
-      <c r="F297" s="7">
-        <f t="shared" si="32"/>
+      <c r="F297">
+        <f t="shared" si="35"/>
         <v>11.749999999999996</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.46874999999999983</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.48958333333333315</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>704.99999999999977</v>
       </c>
       <c r="B298">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>734.99999999999977</v>
       </c>
       <c r="E298" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11.749999999999996</v>
       </c>
-      <c r="F298" s="7">
-        <f t="shared" si="32"/>
+      <c r="F298">
+        <f t="shared" si="35"/>
         <v>12.249999999999996</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.48958333333333315</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.51041666666666652</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>795</v>
       </c>
       <c r="B299">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>825.00000000000011</v>
       </c>
       <c r="E299" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13.25</v>
       </c>
-      <c r="F299" s="7">
-        <f t="shared" si="32"/>
+      <c r="F299">
+        <f t="shared" si="35"/>
         <v>13.750000000000002</v>
       </c>
       <c r="I299" s="1">
         <v>0.55208333333333337</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.57291666666666674</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>825.00000000000011</v>
       </c>
       <c r="B300">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>855.00000000000023</v>
       </c>
       <c r="E300" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13.750000000000002</v>
       </c>
-      <c r="F300" s="7">
-        <f t="shared" si="32"/>
+      <c r="F300">
+        <f t="shared" si="35"/>
         <v>14.250000000000004</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.57291666666666674</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.59375000000000011</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>855.00000000000023</v>
       </c>
       <c r="B301">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>885.00000000000023</v>
       </c>
       <c r="E301" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14.250000000000004</v>
       </c>
-      <c r="F301" s="7">
-        <f t="shared" si="32"/>
+      <c r="F301">
+        <f t="shared" si="35"/>
         <v>14.750000000000004</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.59375000000000011</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.61458333333333348</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>885.00000000000023</v>
       </c>
       <c r="B302">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>915.00000000000023</v>
       </c>
       <c r="E302" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14.750000000000004</v>
       </c>
-      <c r="F302" s="7">
-        <f t="shared" si="32"/>
+      <c r="F302">
+        <f t="shared" si="35"/>
         <v>15.250000000000004</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.61458333333333348</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.63541666666666685</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>915.00000000000023</v>
       </c>
       <c r="B303">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>945.00000000000034</v>
       </c>
       <c r="E303" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>15.250000000000004</v>
       </c>
-      <c r="F303" s="7">
-        <f t="shared" si="32"/>
+      <c r="F303">
+        <f t="shared" si="35"/>
         <v>15.750000000000005</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.63541666666666685</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.65625000000000022</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>945.00000000000034</v>
       </c>
       <c r="B304">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>975.00000000000045</v>
       </c>
       <c r="E304" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>15.750000000000005</v>
       </c>
-      <c r="F304" s="7">
-        <f t="shared" si="32"/>
+      <c r="F304">
+        <f t="shared" si="35"/>
         <v>16.250000000000007</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.65625000000000022</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.67708333333333359</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>975.00000000000045</v>
       </c>
       <c r="B305">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1005.0000000000005</v>
       </c>
       <c r="E305" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16.250000000000007</v>
       </c>
-      <c r="F305" s="7">
-        <f t="shared" si="32"/>
+      <c r="F305">
+        <f t="shared" si="35"/>
         <v>16.750000000000007</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.67708333333333359</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.69791666666666696</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1005.0000000000005</v>
       </c>
       <c r="B306">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1035.0000000000005</v>
       </c>
       <c r="E306" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16.750000000000007</v>
       </c>
-      <c r="F306" s="7">
-        <f t="shared" si="32"/>
+      <c r="F306">
+        <f t="shared" si="35"/>
         <v>17.250000000000007</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.69791666666666696</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.71875000000000033</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1035.0000000000005</v>
       </c>
       <c r="B307">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1065.0000000000005</v>
       </c>
       <c r="E307" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>17.250000000000007</v>
       </c>
-      <c r="F307" s="7">
-        <f t="shared" si="32"/>
+      <c r="F307">
+        <f t="shared" si="35"/>
         <v>17.750000000000007</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.71875000000000033</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.7395833333333337</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1065.0000000000005</v>
       </c>
       <c r="B308">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1095.0000000000007</v>
       </c>
       <c r="E308" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>17.750000000000007</v>
       </c>
-      <c r="F308" s="7">
-        <f t="shared" si="32"/>
+      <c r="F308">
+        <f t="shared" si="35"/>
         <v>18.250000000000011</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.7395833333333337</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.76041666666666707</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1095.0000000000007</v>
       </c>
       <c r="B309">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1125.0000000000007</v>
       </c>
       <c r="E309" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18.250000000000011</v>
       </c>
-      <c r="F309" s="7">
-        <f t="shared" si="32"/>
+      <c r="F309">
+        <f t="shared" si="35"/>
         <v>18.750000000000011</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.76041666666666707</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.78125000000000044</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1125.0000000000007</v>
       </c>
       <c r="B310">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1155.0000000000007</v>
       </c>
       <c r="E310" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18.750000000000011</v>
       </c>
-      <c r="F310" s="7">
-        <f t="shared" si="32"/>
+      <c r="F310">
+        <f t="shared" si="35"/>
         <v>19.250000000000011</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.78125000000000044</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.80208333333333381</v>
       </c>
     </row>
@@ -8971,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4C7943-5FF2-FD4F-90F7-B7009FED3143}">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9005,7 +9004,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>'Energy consumption - calc'!A2</f>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -9021,7 +9020,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2</f>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -9034,7 +9033,7 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A45" si="0">A3</f>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -9047,7 +9046,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -9060,7 +9059,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9073,7 +9072,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -9086,7 +9085,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -9099,7 +9098,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9112,223 +9111,223 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>'Energy consumption - calc'!A3</f>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -9337,391 +9336,391 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>A46</f>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" ref="A48:A111" si="1">A47</f>
-        <v>0.165080742</v>
+        <f t="shared" ref="A48:A110" si="1">A47</f>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="1"/>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <f>'Energy consumption - calc'!A4</f>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
@@ -9730,211 +9729,211 @@
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <f>A111</f>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" ref="A113:A145" si="2">A112</f>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="2"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <f>'Energy consumption - calc'!A5</f>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
       <c r="B146" t="s">
         <v>36</v>
@@ -9943,157 +9942,157 @@
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <f>A146</f>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" ref="A148:A171" si="3">A147</f>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="3"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <f>'Energy consumption - calc'!A6</f>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
       <c r="B172" t="s">
         <v>37</v>
@@ -10102,109 +10101,109 @@
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <f>A172</f>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f t="shared" ref="A174:A190" si="4">A173</f>
-        <v>0.16538582000000002</v>
+        <f t="shared" ref="A174:A189" si="4">A173</f>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="4"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <f>'Energy consumption - calc'!A7</f>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
       <c r="B190" t="s">
         <v>38</v>
@@ -10213,313 +10212,313 @@
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <f>A190</f>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" ref="A192:A241" si="5">A191</f>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" si="5"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <f>'Energy consumption - calc'!A8</f>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
       <c r="B242" t="s">
         <v>39</v>
@@ -10528,283 +10527,283 @@
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <f>A242</f>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" ref="A244:A288" si="6">A243</f>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288">
         <f t="shared" si="6"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
         <f>'Energy consumption - calc'!A9</f>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
       <c r="B289" t="s">
         <v>40</v>
@@ -10813,127 +10812,127 @@
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
         <f>A289</f>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
         <f t="shared" ref="A291:A310" si="7">A290</f>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310">
         <f t="shared" si="7"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
     </row>
   </sheetData>
@@ -24429,7 +24428,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24476,11 +24475,11 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>C2*$H$2</f>
-        <v>0.17728832999999999</v>
+        <v>0.22030170399999999</v>
       </c>
       <c r="C2">
         <f>D2+E2*F2*G2</f>
-        <v>0.88644164999999997</v>
+        <v>1.1015085199999999</v>
       </c>
       <c r="D2" s="4">
         <v>0.88644164999999997</v>
@@ -24489,10 +24488,10 @@
         <v>0.21506686999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -24507,11 +24506,11 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A9" si="0">C3*$H$2</f>
-        <v>0.165080742</v>
+        <v>0.22235142600000002</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C9" si="1">D3+E3*F3*G3</f>
-        <v>0.82540371000000001</v>
+        <v>1.11175713</v>
       </c>
       <c r="D3" s="4">
         <v>0.82540371000000001</v>
@@ -24520,10 +24519,10 @@
         <v>0.28635342000000003</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="4">
@@ -24535,11 +24534,11 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>0.170177568</v>
+        <v>0.21078733000000002</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.85088783999999995</v>
+        <v>1.05393665</v>
       </c>
       <c r="D4" s="4">
         <v>0.85088783999999995</v>
@@ -24548,10 +24547,10 @@
         <v>0.20304881</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="4">
@@ -24563,11 +24562,11 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>0.16901043400000001</v>
+        <v>0.21435349200000001</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.84505216999999999</v>
+        <v>1.07176746</v>
       </c>
       <c r="D5" s="4">
         <v>0.84505216999999999</v>
@@ -24576,10 +24575,10 @@
         <v>0.22671529000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="4">
@@ -24591,11 +24590,11 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>0.16538582000000002</v>
+        <v>0.20727569000000001</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.82692909999999997</v>
+        <v>1.03637845</v>
       </c>
       <c r="D6" s="4">
         <v>0.82692909999999997</v>
@@ -24604,10 +24603,10 @@
         <v>0.20944935000000001</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="4">
@@ -24619,11 +24618,11 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>0.17104711</v>
+        <v>0.21155594999999999</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.85523554999999996</v>
+        <v>1.0577797499999999</v>
       </c>
       <c r="D7" s="4">
         <v>0.85523554999999996</v>
@@ -24632,10 +24631,10 @@
         <v>0.20254420000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="4">
@@ -24647,11 +24646,11 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>0.17718269200000003</v>
+        <v>0.22025683000000004</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.88591346000000004</v>
+        <v>1.1012841500000001</v>
       </c>
       <c r="D8" s="4">
         <v>0.88591346000000004</v>
@@ -24660,10 +24659,10 @@
         <v>0.21537069</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="4">
@@ -24675,11 +24674,11 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>0.17351449000000002</v>
+        <v>0.21466632800000005</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.86757245000000005</v>
+        <v>1.0733316400000001</v>
       </c>
       <c r="D9" s="4">
         <v>0.86757245000000005</v>
@@ -24688,10 +24687,10 @@
         <v>0.20575919000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="4">
